--- a/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1.xlsx
+++ b/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="155">
   <si>
     <t>No</t>
   </si>
@@ -632,9 +632,6 @@
     <t>马丁组</t>
   </si>
   <si>
-    <t>李萌</t>
-  </si>
-  <si>
     <t>配置中心房源相关</t>
   </si>
   <si>
@@ -656,9 +653,6 @@
     <t>安栋</t>
   </si>
   <si>
-    <t>张勋</t>
-  </si>
-  <si>
     <t>Sonar代码规范（city,flat,host,orga,perm,,user）</t>
   </si>
   <si>
@@ -681,6 +675,15 @@
   </si>
   <si>
     <t>房东PC"title","keywords","description"SEO优化</t>
+  </si>
+  <si>
+    <t>李萌、张勋</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>能</t>
   </si>
 </sst>
 </file>
@@ -1414,7 +1417,7 @@
   <dimension ref="A1:V187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G16" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2891,16 +2894,16 @@
         <v>136</v>
       </c>
       <c r="N28" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="O28" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="P28" s="31">
+        <v>152</v>
+      </c>
+      <c r="O28" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="P28" s="37">
         <v>42695</v>
       </c>
-      <c r="Q28" s="18" t="s">
-        <v>119</v>
+      <c r="Q28" s="38" t="s">
+        <v>154</v>
       </c>
       <c r="R28" s="16"/>
       <c r="S28" s="16"/>
@@ -2919,7 +2922,7 @@
         <v>131</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E29" s="35" t="s">
         <v>133</v>
@@ -2941,22 +2944,22 @@
       </c>
       <c r="K29" s="35"/>
       <c r="L29" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M29" s="35" t="s">
         <v>136</v>
       </c>
       <c r="N29" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="O29" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="P29" s="31">
+        <v>152</v>
+      </c>
+      <c r="O29" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="P29" s="37">
         <v>42695</v>
       </c>
-      <c r="Q29" s="18" t="s">
-        <v>99</v>
+      <c r="Q29" s="38" t="s">
+        <v>154</v>
       </c>
       <c r="R29" s="16"/>
       <c r="S29" s="16"/>
@@ -2975,7 +2978,7 @@
         <v>131</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E30" s="35" t="s">
         <v>133</v>
@@ -2997,22 +3000,22 @@
       </c>
       <c r="K30" s="35"/>
       <c r="L30" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M30" s="35" t="s">
         <v>136</v>
       </c>
       <c r="N30" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="O30" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="P30" s="31">
+        <v>141</v>
+      </c>
+      <c r="O30" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="P30" s="37">
         <v>42695</v>
       </c>
-      <c r="Q30" s="18" t="s">
-        <v>119</v>
+      <c r="Q30" s="38" t="s">
+        <v>154</v>
       </c>
       <c r="R30" s="16"/>
       <c r="S30" s="16"/>
@@ -3031,7 +3034,7 @@
         <v>131</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E31" s="35" t="s">
         <v>133</v>
@@ -3053,22 +3056,22 @@
       </c>
       <c r="K31" s="35"/>
       <c r="L31" s="38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M31" s="35" t="s">
         <v>136</v>
       </c>
       <c r="N31" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="O31" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="P31" s="31">
+        <v>152</v>
+      </c>
+      <c r="O31" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="P31" s="37">
         <v>42695</v>
       </c>
-      <c r="Q31" s="18" t="s">
-        <v>99</v>
+      <c r="Q31" s="38" t="s">
+        <v>154</v>
       </c>
       <c r="R31" s="16"/>
       <c r="S31" s="16"/>
@@ -3087,7 +3090,7 @@
         <v>131</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E32" s="35" t="s">
         <v>133</v>
@@ -3109,17 +3112,17 @@
       </c>
       <c r="K32" s="35"/>
       <c r="L32" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M32" s="35" t="s">
         <v>136</v>
       </c>
       <c r="N32" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="O32" s="18"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="18"/>
+        <v>145</v>
+      </c>
+      <c r="O32" s="38"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="38"/>
       <c r="R32" s="16"/>
       <c r="S32" s="16"/>
       <c r="T32" s="16"/>
@@ -3136,13 +3139,13 @@
         <v>131</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E33" s="35" t="s">
         <v>133</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>19</v>
@@ -3158,22 +3161,22 @@
       </c>
       <c r="K33" s="35"/>
       <c r="L33" s="38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M33" s="35" t="s">
         <v>136</v>
       </c>
       <c r="N33" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="O33" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="P33" s="31">
+        <v>141</v>
+      </c>
+      <c r="O33" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="P33" s="37">
         <v>42695</v>
       </c>
-      <c r="Q33" s="18" t="s">
-        <v>99</v>
+      <c r="Q33" s="38" t="s">
+        <v>154</v>
       </c>
       <c r="R33" s="16"/>
       <c r="S33" s="16"/>
@@ -3191,13 +3194,13 @@
         <v>131</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E34" s="35" t="s">
         <v>133</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>19</v>
@@ -3213,23 +3216,17 @@
       </c>
       <c r="K34" s="35"/>
       <c r="L34" s="38" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M34" s="35" t="s">
         <v>136</v>
       </c>
       <c r="N34" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="O34" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="P34" s="31">
-        <v>42695</v>
-      </c>
-      <c r="Q34" s="18" t="s">
-        <v>119</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="O34" s="38"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="38"/>
       <c r="R34" s="16"/>
       <c r="S34" s="16"/>
       <c r="T34" s="16"/>
@@ -3246,7 +3243,7 @@
         <v>131</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E35" s="35" t="s">
         <v>133</v>
@@ -3268,13 +3265,13 @@
       </c>
       <c r="K35" s="35"/>
       <c r="L35" s="38" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M35" s="35" t="s">
         <v>136</v>
       </c>
       <c r="N35" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O35" s="18"/>
       <c r="P35" s="31"/>

--- a/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1.xlsx
+++ b/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14595"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.1.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="配置文件" sheetId="2" r:id="rId2"/>
+    <sheet name="定时器" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.1.1 新特性|Fix Bug'!$A$1:$U$8</definedName>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="241">
   <si>
     <t>No</t>
   </si>
@@ -145,55 +147,55 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>是</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>重要</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>重要</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>紧急</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>房源排序3.0</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>新特性</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>renter、renterpc</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭晓春</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQ组</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>不紧急</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>蘑菇宝（聚有财）申请聚有财审核不通过时需要向租客发送推送及短信</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>New Features</t>
+    <t>吕崇新</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS、定时器</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇宝（聚有财）分期服务协议更换乙方主体</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>renterapp</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客端支付状态“已支付待处理”更改为“支付处理中”</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>renterapp、支付宝服务窗</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇宝（聚有财）买回短信只计算截止到当天的滞纳金</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>parnterapp、parnterpc、bs</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时器</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -201,94 +203,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>是</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕崇新</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕崇新</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>重要</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>蘑菇宝（聚有财）审核不通过即退还保证金并释放额度</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS、定时器</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>重要</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>蘑菇宝（聚有财）分期服务协议更换乙方主体</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>renterapp</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕崇新</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>极光组</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>租客端支付状态“已支付待处理”更改为“支付处理中”</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>renterapp、支付宝服务窗</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>蘑菇宝（聚有财）买回短信只计算截止到当天的滞纳金</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>parnterapp、parnterpc、bs</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>蘑菇宝（聚有财）放款短信合并</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Features</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时器</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>租客拉卡拉到期后，再签聚有财 ，发送还款提醒</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS/定时器</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>茅寰寰</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>极光组</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>解决已支付的账单总金额多计算了一次滞纳金的问题</t>
   </si>
   <si>
@@ -308,10 +226,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>极光组</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>mesg模块去掉delete</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -320,15 +234,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>重要</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>all</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -369,10 +275,6 @@
     <rPh sb="0" eb="1">
       <t>li'ao</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>紧急</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -438,259 +340,739 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>partner、partnerpc</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>房源风控规则变更(包括空置时间由40天改为60天)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Features</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BS、定时器</t>
     <rPh sb="0" eb="1">
       <t>fang'dong</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>钱文博</t>
     <rPh sb="0" eb="1">
       <t>y'b'q</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>磐石组</t>
     <rPh sb="0" eb="1">
       <t>jie'bao'z</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>谷黎娜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>通过</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>能</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>紧急</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>金融风控规则需求一期</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>孙苏文</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>重要</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>房源惩罚日志</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>王向阳</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>风控名单管理二期</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BS</t>
     <rPh sb="0" eb="1">
       <t>fang'dong</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱文博</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东蘑菇分公式调整</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>张浩</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>张浩、傅其亮、苏国泰</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>王健、谷黎娜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢Sql&amp;URL优化一期</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码规范修改一期</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>自测</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>严宏飞</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+  </si>
+  <si>
+    <t>不紧急</t>
+  </si>
+  <si>
+    <t>分散式房源录入重构</t>
+  </si>
+  <si>
+    <t>New Features</t>
+  </si>
+  <si>
+    <t>房东PC</t>
+  </si>
+  <si>
+    <t>张飞</t>
+  </si>
+  <si>
+    <t>马丁组</t>
+  </si>
+  <si>
+    <t>配置中心房源相关</t>
+  </si>
+  <si>
+    <t>徐文瑞</t>
+  </si>
+  <si>
+    <t>查看空置房源</t>
+  </si>
+  <si>
+    <t>李亚林</t>
+  </si>
+  <si>
+    <t>邵明基</t>
+  </si>
+  <si>
+    <t>小区录入商圈关系调整</t>
+  </si>
+  <si>
+    <t>安栋</t>
+  </si>
+  <si>
+    <t>Sonar代码规范（city,flat,host,orga,perm,,user）</t>
+  </si>
+  <si>
+    <t>免测</t>
+  </si>
+  <si>
+    <t>房东接收验证码有效时间调整15分钟</t>
+  </si>
+  <si>
+    <t>房东App</t>
+  </si>
+  <si>
+    <t>郑良杰</t>
+  </si>
+  <si>
+    <t>房东PC"title","keywords","description"SEO优化</t>
+  </si>
+  <si>
+    <t>李萌、张勋</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>能</t>
+  </si>
+  <si>
+    <t>mogoroom-tasktracker</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomScorePreTask</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>前一天0点0分0秒截止到当前时间房源排序前置数据</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭晓春</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>史欣欣</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>未上线</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>昨天凌晨截止到当前时间有变化的房源、公寓对应的房源排序前置数据</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源排序前置数据定时器</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.RoomScorePreTask</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.RoomScorePreTask"}</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时每天任务</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>每日02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>:30:00执行</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试重复执行，如有错，需开发修复</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomOffInfoTask</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史房源下架次数扫描</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>王向阳</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>王岩</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送昨日聚有财放款短信</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.RoomOffInfoTask</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.RoomOffInfoTask"}</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日05:00:00执行</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>不尝试重复执行，如有错，需开发修复</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>RiskSpecialListTask</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>风控名单失效</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>张浩</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改风控名单失效状态</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.RiskSpecialListTask</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.RiskSpecialListTask"}</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据错误日志，查询原因，进行修复</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogoroom-tasktracker</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlatRoomPictureTask</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>MsgSendPayPlanTask</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送聚有财放款短信</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕崇新</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕崇新</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨斌</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>未上线</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送昨日聚有财放款短信</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.MsgSendPayPlanTask</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.MsgSendPayPlanTask"}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时每天任务</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>每日0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>9:00:00执行</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不尝试重复执行，如有错，需开发修复</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomOffInfoTask</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史房源下架次数扫描</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>王岩</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>未上线</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.RoomOffInfoTask</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.RoomOffInfoTask"}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>每日05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>:00:00执行</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不尝试重复执行，如有错，需开发修复</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>RiskSpecialListTask</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>风控名单失效</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>王岩</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>未上线</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改风控名单失效状态</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.RiskSpecialListTask</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.RiskSpecialListTask"}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据错误日志，查询原因，进行修复</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置汇总</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>项目组</t>
+  </si>
+  <si>
+    <t>版本号</t>
+  </si>
+  <si>
+    <t>配置所属系统</t>
+  </si>
+  <si>
+    <t>配置文件名</t>
+  </si>
+  <si>
+    <t>属性</t>
+  </si>
+  <si>
+    <t>配置的详细内容</t>
+  </si>
+  <si>
+    <t>用途</t>
+  </si>
+  <si>
+    <t>环境</t>
+  </si>
+  <si>
+    <t>开发人</t>
+  </si>
+  <si>
+    <t>责任人</t>
+  </si>
+  <si>
+    <t>技术经理</t>
+  </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源排序3.0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>新特性</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>renter、renterpc</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭晓春</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉、吴永余</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复首页banner鼠标拖动会显示空白区域</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>renterpc</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>裔玲玲</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇宝（聚有财）审核不通过即退还保证金并释放额度</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇宝（聚有财）放款短信合并</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客拉卡拉到期后，再签聚有财 ，发送还款提醒</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete 语句监控日志记录、nginx 升级requestid 获取记录日志</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS、renter，renterpc，partner，partnerpc，taskjob、payapi</t>
+    <rPh sb="0" eb="1">
+      <t>fang'dong</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋伟</t>
+    <rPh sb="0" eb="1">
+      <t>y'b'q</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构组</t>
+    <rPh sb="0" eb="1">
+      <t>jie'bao'z</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要测试</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error日志问题，代码规范修改</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯银鹏</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构组</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>免测</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>partner、partnerpc</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷黎娜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>王向阳</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷黎娜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>钱文博、傅其亮</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>李傲</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>公司业务指标统计报表优化</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱文博</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>租金宝统计</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>紧急</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东蘑菇分公式调整</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>张浩</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>报表&amp;查询优化三期</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>张浩、傅其亮、苏国泰</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>王健、谷黎娜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>慢Sql&amp;URL优化一期</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>张浩、孙苏文、
 钱文博、王向阳</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码规范修改一期</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>孙苏文、钱文博、王向阳</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>自测</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>【房东App】文案修改</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>房东APP</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>严宏飞</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>邱嘉莹</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>重要</t>
-  </si>
-  <si>
-    <t>不紧急</t>
-  </si>
-  <si>
-    <t>分散式房源录入重构</t>
-  </si>
-  <si>
-    <t>New Features</t>
-  </si>
-  <si>
-    <t>房东PC</t>
-  </si>
-  <si>
-    <t>张飞</t>
-  </si>
-  <si>
-    <t>马丁组</t>
-  </si>
-  <si>
-    <t>配置中心房源相关</t>
-  </si>
-  <si>
-    <t>徐文瑞</t>
-  </si>
-  <si>
-    <t>查看空置房源</t>
-  </si>
-  <si>
-    <t>李亚林</t>
-  </si>
-  <si>
-    <t>邵明基</t>
-  </si>
-  <si>
-    <t>小区录入商圈关系调整</t>
-  </si>
-  <si>
-    <t>安栋</t>
-  </si>
-  <si>
-    <t>Sonar代码规范（city,flat,host,orga,perm,,user）</t>
-  </si>
-  <si>
-    <t>免测</t>
-  </si>
-  <si>
-    <t>图片等级定时器优化</t>
-  </si>
-  <si>
-    <t>定时器</t>
-  </si>
-  <si>
-    <t>房东接收验证码有效时间调整15分钟</t>
-  </si>
-  <si>
-    <t>房东App</t>
-  </si>
-  <si>
-    <t>郑良杰</t>
-  </si>
-  <si>
-    <t>房东PC"title","keywords","description"SEO优化</t>
-  </si>
-  <si>
-    <t>李萌、张勋</t>
-  </si>
-  <si>
-    <t>通过</t>
-  </si>
-  <si>
-    <t>能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -753,11 +1135,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -779,18 +1156,66 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -815,8 +1240,20 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -893,8 +1330,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -913,8 +1379,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -981,9 +1450,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -996,53 +1462,102 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="7" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 3" xfId="6"/>
     <cellStyle name="常规 3 12" xfId="4"/>
     <cellStyle name="常规 4" xfId="7"/>
     <cellStyle name="常规 6" xfId="1"/>
+    <cellStyle name="常规 7" xfId="8"/>
     <cellStyle name="常规 9" xfId="3"/>
     <cellStyle name="甘特图" xfId="2"/>
   </cellStyles>
@@ -1416,8 +1931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G16" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1431,7 +1946,7 @@
     <col min="8" max="8" width="12.125" style="6" customWidth="1"/>
     <col min="9" max="9" width="9.625" style="5" customWidth="1"/>
     <col min="10" max="10" width="12.375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="14.875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="18.125" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.625" style="5" customWidth="1"/>
     <col min="13" max="13" width="15.875" style="5" customWidth="1"/>
     <col min="14" max="14" width="14.5" style="5" customWidth="1"/>
@@ -1511,120 +2026,135 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>34</v>
+      <c r="B2" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>185</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>35</v>
+        <v>186</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>36</v>
+        <v>187</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>37</v>
+        <v>188</v>
       </c>
       <c r="H2" s="13">
         <v>42695</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>37</v>
+        <v>189</v>
       </c>
       <c r="J2" s="13">
         <v>42695</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="18" t="s">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="24"/>
-    </row>
-    <row r="3" spans="1:22" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="P2" s="13">
+        <v>42695</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="23"/>
+    </row>
+    <row r="3" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>43</v>
+        <v>196</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11" t="s">
+        <v>198</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>44</v>
+        <v>188</v>
       </c>
       <c r="H3" s="13">
-        <v>42691</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>19</v>
+        <v>42696</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>189</v>
       </c>
       <c r="J3" s="13">
-        <v>42691</v>
-      </c>
-      <c r="K3" s="11"/>
+        <v>42696</v>
+      </c>
+      <c r="K3" s="21"/>
       <c r="L3" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="16"/>
+        <v>199</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="P3" s="13">
+        <v>42696</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="R3" s="16">
+        <v>5199</v>
+      </c>
       <c r="S3" s="16"/>
       <c r="T3" s="16"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="24"/>
-    </row>
-    <row r="4" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U3" s="15"/>
+    </row>
+    <row r="4" spans="1:22" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>20</v>
@@ -1640,7 +2170,7 @@
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="18" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>24</v>
@@ -1652,30 +2182,30 @@
       <c r="R4" s="16"/>
       <c r="S4" s="16"/>
       <c r="T4" s="16"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="26"/>
-    </row>
-    <row r="5" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U4" s="22"/>
+      <c r="V4" s="23"/>
+    </row>
+    <row r="5" spans="1:22" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>51</v>
+        <v>202</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H5" s="13">
         <v>42691</v>
@@ -1686,41 +2216,41 @@
       <c r="J5" s="13">
         <v>42691</v>
       </c>
-      <c r="K5" s="12"/>
+      <c r="K5" s="11"/>
       <c r="L5" s="18" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="N5" s="18"/>
       <c r="O5" s="18"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="18"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="26"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="23"/>
     </row>
     <row r="6" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>20</v>
@@ -1736,39 +2266,39 @@
       </c>
       <c r="K6" s="12"/>
       <c r="L6" s="18" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="M6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="11"/>
+      <c r="N6" s="18"/>
       <c r="O6" s="18"/>
       <c r="P6" s="13"/>
       <c r="Q6" s="18"/>
       <c r="R6" s="20"/>
       <c r="S6" s="20"/>
       <c r="T6" s="20"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="26"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="25"/>
     </row>
     <row r="7" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>20</v>
@@ -1784,7 +2314,7 @@
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="18" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>24</v>
@@ -1796,10 +2326,10 @@
       <c r="R7" s="20"/>
       <c r="S7" s="20"/>
       <c r="T7" s="20"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="26"/>
-    </row>
-    <row r="8" spans="1:22" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U7" s="24"/>
+      <c r="V7" s="25"/>
+    </row>
+    <row r="8" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -1810,13 +2340,13 @@
         <v>25</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>61</v>
+        <v>26</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>20</v>
@@ -1832,7 +2362,7 @@
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="18" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="M8" s="11" t="s">
         <v>24</v>
@@ -1844,10 +2374,10 @@
       <c r="R8" s="20"/>
       <c r="S8" s="20"/>
       <c r="T8" s="20"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="26"/>
-    </row>
-    <row r="9" spans="1:22" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U8" s="24"/>
+      <c r="V8" s="25"/>
+    </row>
+    <row r="9" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1857,14 +2387,14 @@
       <c r="C9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>62</v>
+      <c r="D9" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>63</v>
+      <c r="F9" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>20</v>
@@ -1880,10 +2410,10 @@
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="18" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="N9" s="11"/>
       <c r="O9" s="18"/>
@@ -1892,10 +2422,10 @@
       <c r="R9" s="20"/>
       <c r="S9" s="20"/>
       <c r="T9" s="20"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="26"/>
-    </row>
-    <row r="10" spans="1:22" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U9" s="24"/>
+      <c r="V9" s="25"/>
+    </row>
+    <row r="10" spans="1:22" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -1906,13 +2436,13 @@
         <v>25</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>66</v>
+        <v>204</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>20</v>
@@ -1928,7 +2458,7 @@
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="18" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="M10" s="11" t="s">
         <v>24</v>
@@ -1940,10 +2470,10 @@
       <c r="R10" s="20"/>
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="26"/>
-    </row>
-    <row r="11" spans="1:22" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U10" s="24"/>
+      <c r="V10" s="25"/>
+    </row>
+    <row r="11" spans="1:22" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -1954,13 +2484,13 @@
         <v>25</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>20</v>
@@ -1975,11 +2505,11 @@
         <v>42691</v>
       </c>
       <c r="K11" s="12"/>
-      <c r="L11" s="19" t="s">
-        <v>70</v>
+      <c r="L11" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="N11" s="11"/>
       <c r="O11" s="18"/>
@@ -1988,10 +2518,10 @@
       <c r="R11" s="20"/>
       <c r="S11" s="20"/>
       <c r="T11" s="20"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="24"/>
-    </row>
-    <row r="12" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U11" s="24"/>
+      <c r="V11" s="25"/>
+    </row>
+    <row r="12" spans="1:22" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -2002,13 +2532,13 @@
         <v>25</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>20</v>
@@ -2022,9 +2552,9 @@
       <c r="J12" s="13">
         <v>42691</v>
       </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="18" t="s">
-        <v>73</v>
+      <c r="K12" s="12"/>
+      <c r="L12" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="M12" s="11" t="s">
         <v>24</v>
@@ -2033,33 +2563,33 @@
       <c r="O12" s="18"/>
       <c r="P12" s="13"/>
       <c r="Q12" s="18"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="24"/>
-    </row>
-    <row r="13" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="25"/>
+    </row>
+    <row r="13" spans="1:22" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="H13" s="13">
         <v>42691</v>
@@ -2072,124 +2602,134 @@
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="18" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="N13" s="18" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="N13" s="11"/>
       <c r="O13" s="18"/>
       <c r="P13" s="13"/>
       <c r="Q13" s="18"/>
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
       <c r="T13" s="16"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="24"/>
-    </row>
-    <row r="14" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U13" s="22"/>
+      <c r="V13" s="23"/>
+    </row>
+    <row r="14" spans="1:22" s="3" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>79</v>
+        <v>205</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>206</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>81</v>
+        <v>207</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>208</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="13">
-        <v>42695</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="13">
+        <v>30</v>
+      </c>
+      <c r="H14" s="29">
+        <v>42694</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="J14" s="29">
         <v>42695</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="18" t="s">
-        <v>82</v>
+        <v>210</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="N14" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="O14" s="18"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="24"/>
-    </row>
-    <row r="15" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>211</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" s="29">
+        <v>42695</v>
+      </c>
+      <c r="Q14" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="23"/>
+    </row>
+    <row r="15" spans="1:22" s="3" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>23</v>
+        <v>214</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>85</v>
+        <v>205</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>215</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>81</v>
+        <v>26</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>208</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="13">
-        <v>42695</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="13">
+        <v>30</v>
+      </c>
+      <c r="H15" s="29">
+        <v>42694</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="J15" s="29">
         <v>42695</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="18" t="s">
-        <v>86</v>
+        <v>216</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="N15" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="O15" s="18"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="24"/>
-    </row>
-    <row r="16" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>217</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="O15" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="P15" s="29">
+        <v>42695</v>
+      </c>
+      <c r="Q15" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="23"/>
+    </row>
+    <row r="16" spans="1:22" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -2200,1134 +2740,1210 @@
         <v>25</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="H16" s="13">
-        <v>42695</v>
+        <v>42691</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J16" s="13">
-        <v>42695</v>
+        <v>42691</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="18" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="N16" s="18" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="O16" s="18"/>
       <c r="P16" s="13"/>
       <c r="Q16" s="18"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="24"/>
-    </row>
-    <row r="17" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="23"/>
+    </row>
+    <row r="17" spans="1:22" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>92</v>
+        <v>54</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>94</v>
+        <v>56</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="31">
-        <v>42691</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="31">
-        <v>42691</v>
+        <v>20</v>
+      </c>
+      <c r="H17" s="13">
+        <v>42695</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="13">
+        <v>42695</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="18" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="N17" s="11" t="s">
-        <v>97</v>
+        <v>53</v>
+      </c>
+      <c r="N17" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="O17" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="P17" s="31">
+        <v>220</v>
+      </c>
+      <c r="P17" s="13">
         <v>42695</v>
       </c>
       <c r="Q17" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="24"/>
-    </row>
-    <row r="18" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>221</v>
+      </c>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="23"/>
+    </row>
+    <row r="18" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9">
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>101</v>
+        <v>54</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>94</v>
+        <v>56</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="31">
-        <v>42691</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="31">
-        <v>42691</v>
+        <v>20</v>
+      </c>
+      <c r="H18" s="13">
+        <v>42695</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="13">
+        <v>42695</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="18" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="N18" s="11" t="s">
-        <v>97</v>
+        <v>62</v>
+      </c>
+      <c r="N18" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="O18" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="P18" s="31">
+        <v>220</v>
+      </c>
+      <c r="P18" s="13">
         <v>42695</v>
       </c>
       <c r="Q18" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="24"/>
-    </row>
-    <row r="19" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>221</v>
+      </c>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="25"/>
+    </row>
+    <row r="19" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>104</v>
+        <v>25</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>94</v>
+      <c r="F19" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="31">
-        <v>42692</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J19" s="31">
-        <v>42692</v>
+        <v>20</v>
+      </c>
+      <c r="H19" s="13">
+        <v>42695</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="13">
+        <v>42695</v>
       </c>
       <c r="K19" s="11"/>
       <c r="L19" s="18" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="N19" s="11" t="s">
-        <v>97</v>
+        <v>62</v>
+      </c>
+      <c r="N19" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="O19" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="P19" s="31">
+        <v>220</v>
+      </c>
+      <c r="P19" s="13">
         <v>42695</v>
       </c>
       <c r="Q19" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="24"/>
-    </row>
-    <row r="20" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>221</v>
+      </c>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="25"/>
+    </row>
+    <row r="20" spans="1:22" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>106</v>
+        <v>88</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>107</v>
+        <v>90</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="31">
-        <v>42692</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" s="31">
-        <v>42692</v>
+        <v>19</v>
+      </c>
+      <c r="H20" s="13">
+        <v>42695</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="13">
+        <v>42695</v>
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="N20" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="O20" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="M20" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="N20" s="11" t="s">
+      <c r="P20" s="13">
+        <v>42695</v>
+      </c>
+      <c r="Q20" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="O20" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="P20" s="31">
-        <v>42695</v>
-      </c>
-      <c r="Q20" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="24"/>
-    </row>
-    <row r="21" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="23"/>
+    </row>
+    <row r="21" spans="1:22" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>110</v>
+        <v>88</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>107</v>
+        <v>90</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="31">
-        <v>42693</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J21" s="31">
-        <v>42693</v>
+        <v>19</v>
+      </c>
+      <c r="H21" s="13">
+        <v>42695</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="13">
+        <v>42695</v>
       </c>
       <c r="K21" s="11"/>
       <c r="L21" s="18" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="N21" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="N21" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="O21" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="P21" s="13">
+        <v>42695</v>
+      </c>
+      <c r="Q21" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="O21" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="P21" s="31">
-        <v>42695</v>
-      </c>
-      <c r="Q21" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="24"/>
-    </row>
-    <row r="22" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="23"/>
+    </row>
+    <row r="22" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9">
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>112</v>
+        <v>88</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>107</v>
+        <v>90</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" s="31">
-        <v>42694</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J22" s="31">
-        <v>42694</v>
+        <v>19</v>
+      </c>
+      <c r="H22" s="13">
+        <v>42691</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="13">
+        <v>42691</v>
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="18" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="N22" s="11" t="s">
-        <v>97</v>
+        <v>93</v>
+      </c>
+      <c r="N22" s="18" t="s">
+        <v>98</v>
       </c>
       <c r="O22" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="P22" s="31">
+        <v>108</v>
+      </c>
+      <c r="P22" s="13">
         <v>42695</v>
       </c>
       <c r="Q22" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="24"/>
-    </row>
-    <row r="23" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="25"/>
+    </row>
+    <row r="23" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9">
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>114</v>
+        <v>88</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" s="31">
-        <v>42695</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="31">
-        <v>42695</v>
+        <v>19</v>
+      </c>
+      <c r="H23" s="13">
+        <v>42691</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="13">
+        <v>42691</v>
       </c>
       <c r="K23" s="11"/>
       <c r="L23" s="18" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="N23" s="11" t="s">
-        <v>97</v>
+        <v>93</v>
+      </c>
+      <c r="N23" s="18" t="s">
+        <v>107</v>
       </c>
       <c r="O23" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="P23" s="31">
+        <v>108</v>
+      </c>
+      <c r="P23" s="13">
         <v>42695</v>
       </c>
       <c r="Q23" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="24"/>
-    </row>
-    <row r="24" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="25"/>
+    </row>
+    <row r="24" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9">
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>116</v>
+        <v>88</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>107</v>
+        <v>90</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" s="31">
-        <v>42695</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J24" s="31">
-        <v>42695</v>
+        <v>19</v>
+      </c>
+      <c r="H24" s="13">
+        <v>42694</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="13">
+        <v>42694</v>
       </c>
       <c r="K24" s="11"/>
       <c r="L24" s="18" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="N24" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O24" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="P24" s="31">
-        <v>42695</v>
-      </c>
-      <c r="Q24" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="24"/>
-    </row>
-    <row r="25" spans="1:22" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+      <c r="N24" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="O24" s="18"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="25"/>
+    </row>
+    <row r="25" spans="1:22" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9">
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>120</v>
-      </c>
       <c r="E25" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>107</v>
+        <v>90</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" s="31">
+        <v>19</v>
+      </c>
+      <c r="H25" s="13">
         <v>42695</v>
       </c>
-      <c r="I25" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J25" s="31">
+      <c r="I25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="13">
         <v>42695</v>
       </c>
       <c r="K25" s="11"/>
-      <c r="L25" s="9" t="s">
-        <v>121</v>
+      <c r="L25" s="18" t="s">
+        <v>105</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="N25" s="11" t="s">
-        <v>118</v>
+        <v>93</v>
+      </c>
+      <c r="N25" s="18" t="s">
+        <v>98</v>
       </c>
       <c r="O25" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="P25" s="31">
+        <v>108</v>
+      </c>
+      <c r="P25" s="13">
         <v>42695</v>
       </c>
       <c r="Q25" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="24"/>
-    </row>
-    <row r="26" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="25"/>
+    </row>
+    <row r="26" spans="1:22" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="9">
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>122</v>
+        <v>88</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>107</v>
+        <v>90</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="H26" s="31">
-        <v>42695</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J26" s="31">
-        <v>42695</v>
+        <v>19</v>
+      </c>
+      <c r="H26" s="13">
+        <v>42696</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="13">
+        <v>42696</v>
       </c>
       <c r="K26" s="11"/>
-      <c r="L26" s="9" t="s">
-        <v>124</v>
+      <c r="L26" s="18" t="s">
+        <v>105</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="N26" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="O26" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="P26" s="31">
-        <v>42695</v>
-      </c>
-      <c r="Q26" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="24"/>
-    </row>
-    <row r="27" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+      <c r="N26" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="O26" s="18"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="25"/>
+    </row>
+    <row r="27" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>126</v>
+        <v>223</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>65</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H27" s="31">
-        <v>42695</v>
+        <v>30</v>
+      </c>
+      <c r="H27" s="29">
+        <v>42691</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J27" s="31">
-        <v>42696</v>
+        <v>30</v>
+      </c>
+      <c r="J27" s="29">
+        <v>42691</v>
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="18" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="O27" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="P27" s="31">
+        <v>70</v>
+      </c>
+      <c r="P27" s="29">
         <v>42695</v>
       </c>
       <c r="Q27" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="24"/>
+        <v>71</v>
+      </c>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="23"/>
     </row>
     <row r="28" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="9">
         <v>27</v>
       </c>
-      <c r="B28" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="E28" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="F28" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="G28" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="37">
+      <c r="B28" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="29">
+        <v>42691</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" s="29">
+        <v>42691</v>
+      </c>
+      <c r="K28" s="11"/>
+      <c r="L28" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="O28" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="P28" s="29">
         <v>42695</v>
       </c>
-      <c r="I28" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="J28" s="37">
-        <v>42695</v>
-      </c>
-      <c r="K28" s="35"/>
-      <c r="L28" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="M28" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="N28" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="O28" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="P28" s="37">
-        <v>42695</v>
-      </c>
-      <c r="Q28" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="24"/>
+      <c r="Q28" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="23"/>
     </row>
     <row r="29" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="9">
         <v>28</v>
       </c>
-      <c r="B29" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="E29" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="F29" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="G29" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="37">
+      <c r="B29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="29">
+        <v>42692</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="29">
+        <v>42692</v>
+      </c>
+      <c r="K29" s="11"/>
+      <c r="L29" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="O29" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="P29" s="29">
         <v>42695</v>
       </c>
-      <c r="I29" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="37">
-        <v>42695</v>
-      </c>
-      <c r="K29" s="35"/>
-      <c r="L29" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="M29" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="N29" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="O29" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="P29" s="37">
-        <v>42695</v>
-      </c>
-      <c r="Q29" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="24"/>
+      <c r="Q29" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="23"/>
     </row>
     <row r="30" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
         <v>29</v>
       </c>
-      <c r="B30" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="E30" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="F30" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="G30" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" s="37">
-        <v>42691</v>
-      </c>
-      <c r="I30" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="37">
-        <v>42691</v>
-      </c>
-      <c r="K30" s="35"/>
-      <c r="L30" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="M30" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="N30" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="O30" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="P30" s="37">
+      <c r="B30" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="29">
+        <v>42692</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="29">
+        <v>42692</v>
+      </c>
+      <c r="K30" s="11"/>
+      <c r="L30" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="O30" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="P30" s="29">
         <v>42695</v>
       </c>
-      <c r="Q30" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
+      <c r="Q30" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
       <c r="U30" s="22"/>
-      <c r="V30" s="24"/>
+      <c r="V30" s="23"/>
     </row>
     <row r="31" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="9">
         <v>30</v>
       </c>
-      <c r="B31" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="E31" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="F31" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="G31" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" s="37">
-        <v>42691</v>
-      </c>
-      <c r="I31" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" s="37">
-        <v>42691</v>
-      </c>
-      <c r="K31" s="35"/>
-      <c r="L31" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="M31" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="N31" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="O31" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="P31" s="37">
+      <c r="B31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="29">
+        <v>42693</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" s="29">
+        <v>42693</v>
+      </c>
+      <c r="K31" s="11"/>
+      <c r="L31" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="O31" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="P31" s="29">
         <v>42695</v>
       </c>
-      <c r="Q31" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
+      <c r="Q31" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
       <c r="U31" s="22"/>
-      <c r="V31" s="24"/>
-    </row>
-    <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="V31" s="23"/>
+    </row>
+    <row r="32" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
         <v>31</v>
       </c>
-      <c r="B32" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="D32" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="E32" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="F32" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="G32" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" s="37">
+      <c r="B32" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="H32" s="29">
         <v>42694</v>
       </c>
-      <c r="I32" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" s="37">
+      <c r="I32" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32" s="29">
         <v>42694</v>
       </c>
-      <c r="K32" s="35"/>
-      <c r="L32" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="M32" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="N32" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="O32" s="38"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="15"/>
-    </row>
-    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K32" s="11"/>
+      <c r="L32" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="O32" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="P32" s="29">
+        <v>42695</v>
+      </c>
+      <c r="Q32" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="23"/>
+    </row>
+    <row r="33" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="9">
         <v>32</v>
       </c>
-      <c r="B33" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="E33" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="F33" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="G33" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="37">
-        <v>42694</v>
-      </c>
-      <c r="I33" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33" s="37">
-        <v>42694</v>
-      </c>
-      <c r="K33" s="35"/>
-      <c r="L33" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="M33" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="N33" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="O33" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="P33" s="37">
+      <c r="B33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="29">
         <v>42695</v>
       </c>
-      <c r="Q33" s="38" t="s">
-        <v>154</v>
+      <c r="I33" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J33" s="29">
+        <v>42695</v>
+      </c>
+      <c r="K33" s="11"/>
+      <c r="L33" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="O33" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="P33" s="29">
+        <v>42695</v>
+      </c>
+      <c r="Q33" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="R33" s="16"/>
       <c r="S33" s="16"/>
       <c r="T33" s="16"/>
-      <c r="U33" s="15"/>
-    </row>
-    <row r="34" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U33" s="22"/>
+      <c r="V33" s="23"/>
+    </row>
+    <row r="34" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
         <v>33</v>
       </c>
-      <c r="B34" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="D34" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="E34" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="F34" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="G34" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" s="37">
+      <c r="B34" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="29">
         <v>42695</v>
       </c>
-      <c r="I34" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="J34" s="37">
+      <c r="I34" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" s="29">
         <v>42695</v>
       </c>
-      <c r="K34" s="35"/>
-      <c r="L34" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="M34" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="N34" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="O34" s="38"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="38"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="O34" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="P34" s="29">
+        <v>42695</v>
+      </c>
+      <c r="Q34" s="18" t="s">
+        <v>71</v>
+      </c>
       <c r="R34" s="16"/>
       <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="15"/>
-    </row>
-    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="T34" s="27"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="23"/>
+    </row>
+    <row r="35" spans="1:22" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
         <v>34</v>
       </c>
-      <c r="B35" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="D35" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="E35" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="F35" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="G35" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" s="37">
-        <v>42696</v>
-      </c>
-      <c r="I35" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="J35" s="37">
-        <v>42696</v>
-      </c>
-      <c r="K35" s="35"/>
-      <c r="L35" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="M35" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="N35" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="O35" s="18"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="18"/>
+      <c r="B35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="29">
+        <v>42695</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J35" s="29">
+        <v>42695</v>
+      </c>
+      <c r="K35" s="11"/>
+      <c r="L35" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="O35" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="P35" s="29">
+        <v>42695</v>
+      </c>
+      <c r="Q35" s="18" t="s">
+        <v>71</v>
+      </c>
       <c r="R35" s="16"/>
       <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="15"/>
-    </row>
-    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="15"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="23"/>
+    </row>
+    <row r="36" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="9">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="29">
+        <v>42695</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J36" s="29">
+        <v>42695</v>
+      </c>
+      <c r="K36" s="11"/>
+      <c r="L36" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="O36" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="P36" s="29">
+        <v>42695</v>
+      </c>
+      <c r="Q36" s="18" t="s">
+        <v>71</v>
+      </c>
       <c r="R36" s="16"/>
       <c r="S36" s="16"/>
-      <c r="T36" s="16"/>
-      <c r="U36" s="15"/>
-    </row>
-    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="15"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="23"/>
+    </row>
+    <row r="37" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="9">
+        <v>36</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" s="29">
+        <v>42695</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J37" s="29">
+        <v>42696</v>
+      </c>
+      <c r="K37" s="11"/>
+      <c r="L37" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="N37" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="O37" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="P37" s="29">
+        <v>42695</v>
+      </c>
+      <c r="Q37" s="18" t="s">
+        <v>71</v>
+      </c>
       <c r="R37" s="16"/>
       <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
-      <c r="U37" s="15"/>
-    </row>
-    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="T37" s="27"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="23"/>
+    </row>
+    <row r="38" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -3350,7 +3966,7 @@
       <c r="T38" s="16"/>
       <c r="U38" s="15"/>
     </row>
-    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -3373,7 +3989,7 @@
       <c r="T39" s="16"/>
       <c r="U39" s="15"/>
     </row>
-    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -3396,7 +4012,7 @@
       <c r="T40" s="16"/>
       <c r="U40" s="15"/>
     </row>
-    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
@@ -3419,7 +4035,7 @@
       <c r="T41" s="16"/>
       <c r="U41" s="15"/>
     </row>
-    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
@@ -3442,7 +4058,7 @@
       <c r="T42" s="16"/>
       <c r="U42" s="15"/>
     </row>
-    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
@@ -3465,7 +4081,7 @@
       <c r="T43" s="16"/>
       <c r="U43" s="15"/>
     </row>
-    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="16"/>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
@@ -3488,7 +4104,7 @@
       <c r="T44" s="16"/>
       <c r="U44" s="15"/>
     </row>
-    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
@@ -3511,7 +4127,7 @@
       <c r="T45" s="16"/>
       <c r="U45" s="15"/>
     </row>
-    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="16"/>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
@@ -3534,7 +4150,7 @@
       <c r="T46" s="16"/>
       <c r="U46" s="15"/>
     </row>
-    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -3557,7 +4173,7 @@
       <c r="T47" s="16"/>
       <c r="U47" s="15"/>
     </row>
-    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="16"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -6594,4 +7210,495 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="I3" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="J3" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="K3" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="L3" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="M3" s="47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4">
+      <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I4">
+      <formula1>"生产环境,测试环境,开发环境"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="26.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="54.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="71.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="O1" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="P1" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q1" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="R1" s="43">
+        <v>42696</v>
+      </c>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+    </row>
+    <row r="2" spans="1:23" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="N2" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="O2" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="P2" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q2" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="R2" s="43">
+        <v>42692</v>
+      </c>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+    </row>
+    <row r="3" spans="1:23" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="H3" s="35"/>
+      <c r="I3" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="L3" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="M3" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="O3" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="P3" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q3" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="R3" s="43">
+        <v>42692</v>
+      </c>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+    </row>
+    <row r="4" spans="1:23" s="44" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="H4" s="35"/>
+      <c r="I4" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="M4" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="N4" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="O4" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="P4" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q4" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="R4" s="43">
+        <v>38353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="44" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="H5" s="35"/>
+      <c r="I5" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="L5" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="N5" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="O5" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="P5" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q5" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="R5" s="43">
+        <v>42692</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="44" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="H6" s="35"/>
+      <c r="I6" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="N6" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="O6" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="P6" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q6" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="R6" s="43">
+        <v>42692</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1.xlsx
+++ b/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="251">
   <si>
     <t>No</t>
   </si>
@@ -1066,6 +1066,44 @@
   <si>
     <t>邱嘉莹</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MogoBaoProtocolTemplet_JYC</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同模板</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产环境</t>
+  </si>
+  <si>
+    <t>杨斌</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>请将模板文件替换目录  /var/lib/docker/contract/template/ 下的原文件</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>\Version 5.1.1\配置文件\合同模板</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
   </si>
 </sst>
 </file>
@@ -7217,14 +7255,16 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
@@ -7300,20 +7340,42 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="48"/>
+    <row r="4" spans="1:13" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="48">
+        <v>1</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="I4" s="48" t="s">
+        <v>246</v>
+      </c>
       <c r="J4" s="49"/>
       <c r="K4" s="49"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="49"/>
+      <c r="L4" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="M4" s="49" t="s">
+        <v>248</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1.xlsx
+++ b/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14595" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14595"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.1.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="285">
   <si>
     <t>No</t>
   </si>
@@ -159,71 +159,11 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>蘑菇宝（聚有财）申请聚有财审核不通过时需要向租客发送推送及短信</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>吕崇新</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>BS、定时器</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>蘑菇宝（聚有财）分期服务协议更换乙方主体</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>renterapp</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>租客端支付状态“已支付待处理”更改为“支付处理中”</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>renterapp、支付宝服务窗</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>蘑菇宝（聚有财）买回短信只计算截止到当天的滞纳金</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>parnterapp、parnterpc、bs</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时器</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS/定时器</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>茅寰寰</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>解决已支付的账单总金额多计算了一次滞纳金的问题</t>
-  </si>
-  <si>
-    <t>Fix Bug</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan模块、prod模块去掉delete</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙周麟</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>mesg模块去掉delete</t>
@@ -902,18 +842,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>蘑菇宝（聚有财）审核不通过即退还保证金并释放额度</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>蘑菇宝（聚有财）放款短信合并</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>租客拉卡拉到期后，再签聚有财 ，发送还款提醒</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>一般</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1068,49 +996,260 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>生产环境</t>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息独立包</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemconfig.properties</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysconfig.mail_api_key=jXx7go4VP5mxxsuk
+修改为
+sysconfig.mail_api_key=342843941D7314D9501BD2F9E78B9A064788530961C1743A441BD5B44098A04F</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送邮件的邮箱修改为密文</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏玉军</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨斌</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有包</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>MogoBaoProtocolTemplet_JYC.vm</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>请将模板文件替换目录  /var/lib/docker/contract/template/ 下的原文件，新的模板请见“配置文件/合同/MogoBaoProtocolTemplet_JYC.vm”</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改聚有财蘑菇宝合同模板</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕崇新</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨斌</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不紧急</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇宝（聚有财）申请聚有财审核不通过时需要向租客发送推送及短信</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS/定时器</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕崇新</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不紧急</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇宝（聚有财）审核不通过即退还保证金并释放额度</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS、定时器</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇宝（聚有财）分期服务协议更换乙方主体</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>renterapp</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>极光组</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>5.1.1</t>
+    <t>能</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>MogoBaoProtocolTemplet_JYC</t>
+    <t>重要</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>房东PC</t>
+    <t>租客端支付状态“已支付待处理”更改为“支付处理中”</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>合同模板</t>
+    <t>renterapp、支付宝服务窗</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>生产环境</t>
-  </si>
-  <si>
-    <t>杨斌</t>
+    <t>纪维玉</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>请将模板文件替换目录  /var/lib/docker/contract/template/ 下的原文件</t>
+    <t>能</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>\Version 5.1.1\配置文件\合同模板</t>
+    <t>蘑菇宝（聚有财）买回短信只计算截止到当天的滞纳金</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>修改</t>
+    <t>parnterapp、parnterpc、bs</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕崇新</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客拉卡拉到期后，再签聚有财 ，发送还款提醒</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS/定时器</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅寰寰</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>renterapp</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅寰寰</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan模块、prod模块去掉delete</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙周麟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>王云飞</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1250,6 +1389,11 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1421,7 +1565,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1566,13 +1710,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1967,10 +2108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V187"/>
+  <dimension ref="A1:V186"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2069,50 +2210,50 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="H2" s="13">
         <v>42695</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="J2" s="13">
         <v>42695</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="18" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="P2" s="13">
         <v>42695</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="R2" s="27"/>
       <c r="S2" s="27"/>
@@ -2125,48 +2266,48 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="H3" s="13">
         <v>42696</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="J3" s="13">
         <v>42696</v>
       </c>
       <c r="K3" s="21"/>
       <c r="L3" s="18" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="M3" s="18" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="O3" s="18" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="P3" s="13">
         <v>42696</v>
       </c>
       <c r="Q3" s="18" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="R3" s="16">
         <v>5199</v>
@@ -2180,22 +2321,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>23</v>
+        <v>241</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>25</v>
+        <v>242</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>33</v>
+        <v>243</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>43</v>
+        <v>245</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>20</v>
+        <v>246</v>
       </c>
       <c r="H4" s="13">
         <v>42691</v>
@@ -2208,15 +2349,23 @@
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="18" t="s">
-        <v>34</v>
+        <v>247</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="18"/>
+      <c r="N4" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="P4" s="13">
+        <v>42691</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>249</v>
+      </c>
       <c r="R4" s="16"/>
       <c r="S4" s="16"/>
       <c r="T4" s="16"/>
@@ -2228,22 +2377,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>202</v>
+        <v>252</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>35</v>
+        <v>253</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>20</v>
+        <v>246</v>
       </c>
       <c r="H5" s="13">
         <v>42691</v>
@@ -2256,15 +2405,23 @@
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="18"/>
+      <c r="N5" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="P5" s="13">
+        <v>42691</v>
+      </c>
+      <c r="Q5" s="18" t="s">
+        <v>254</v>
+      </c>
       <c r="R5" s="16"/>
       <c r="S5" s="16"/>
       <c r="T5" s="16"/>
@@ -2276,19 +2433,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>36</v>
+        <v>255</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>26</v>
+        <v>256</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>37</v>
+        <v>257</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>20</v>
@@ -2304,15 +2461,23 @@
       </c>
       <c r="K6" s="12"/>
       <c r="L6" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="18"/>
+        <v>258</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="P6" s="13">
+        <v>42691</v>
+      </c>
+      <c r="Q6" s="18" t="s">
+        <v>259</v>
+      </c>
       <c r="R6" s="20"/>
       <c r="S6" s="20"/>
       <c r="T6" s="20"/>
@@ -2324,19 +2489,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>23</v>
+        <v>260</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>38</v>
+        <v>261</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>26</v>
+        <v>256</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>39</v>
+        <v>262</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>20</v>
@@ -2352,15 +2517,23 @@
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="11"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="18"/>
+      <c r="N7" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="O7" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="P7" s="13">
+        <v>42691</v>
+      </c>
+      <c r="Q7" s="18" t="s">
+        <v>264</v>
+      </c>
       <c r="R7" s="20"/>
       <c r="S7" s="20"/>
       <c r="T7" s="20"/>
@@ -2372,19 +2545,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>23</v>
+        <v>241</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>40</v>
+        <v>265</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>26</v>
+        <v>256</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>41</v>
+        <v>266</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>20</v>
@@ -2400,15 +2573,23 @@
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="18" t="s">
-        <v>34</v>
+        <v>267</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="18"/>
+        <v>268</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="P8" s="13">
+        <v>42691</v>
+      </c>
+      <c r="Q8" s="18" t="s">
+        <v>264</v>
+      </c>
       <c r="R8" s="20"/>
       <c r="S8" s="20"/>
       <c r="T8" s="20"/>
@@ -2420,19 +2601,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>23</v>
+        <v>269</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>203</v>
+      <c r="D9" s="14" t="s">
+        <v>270</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>42</v>
+        <v>256</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>271</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>20</v>
@@ -2448,15 +2629,23 @@
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="18" t="s">
-        <v>34</v>
+        <v>272</v>
       </c>
       <c r="M9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="18"/>
+      <c r="N9" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="O9" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="P9" s="13">
+        <v>42691</v>
+      </c>
+      <c r="Q9" s="18" t="s">
+        <v>259</v>
+      </c>
       <c r="R9" s="20"/>
       <c r="S9" s="20"/>
       <c r="T9" s="20"/>
@@ -2468,22 +2657,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>25</v>
+        <v>242</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>204</v>
+        <v>34</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>26</v>
+        <v>274</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>43</v>
+        <v>275</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>20</v>
+        <v>246</v>
       </c>
       <c r="H10" s="13">
         <v>42691</v>
@@ -2496,15 +2685,23 @@
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="18" t="s">
-        <v>44</v>
+        <v>276</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="11"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="18"/>
+        <v>277</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="O10" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="P10" s="13">
+        <v>42691</v>
+      </c>
+      <c r="Q10" s="18" t="s">
+        <v>254</v>
+      </c>
       <c r="R10" s="20"/>
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
@@ -2516,19 +2713,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>23</v>
+        <v>278</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>45</v>
+        <v>279</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>46</v>
+        <v>256</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>20</v>
@@ -2543,16 +2740,24 @@
         <v>42691</v>
       </c>
       <c r="K11" s="12"/>
-      <c r="L11" s="18" t="s">
-        <v>44</v>
+      <c r="L11" s="19" t="s">
+        <v>281</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="11"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="18"/>
+        <v>282</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="O11" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="P11" s="13">
+        <v>42691</v>
+      </c>
+      <c r="Q11" s="18" t="s">
+        <v>259</v>
+      </c>
       <c r="R11" s="20"/>
       <c r="S11" s="20"/>
       <c r="T11" s="20"/>
@@ -2564,19 +2769,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>26</v>
+        <v>256</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>48</v>
+        <v>280</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>20</v>
@@ -2590,89 +2795,105 @@
       <c r="J12" s="13">
         <v>42691</v>
       </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="19" t="s">
-        <v>49</v>
+      <c r="K12" s="11"/>
+      <c r="L12" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="M12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="N12" s="11"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="18"/>
+      <c r="N12" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="O12" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="P12" s="13">
+        <v>42691</v>
+      </c>
+      <c r="Q12" s="18" t="s">
+        <v>259</v>
+      </c>
       <c r="R12" s="20"/>
       <c r="S12" s="20"/>
       <c r="T12" s="20"/>
       <c r="U12" s="24"/>
       <c r="V12" s="25"/>
     </row>
-    <row r="13" spans="1:22" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" s="3" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>50</v>
+        <v>187</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>188</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>48</v>
+        <v>189</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>190</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="13">
-        <v>42691</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="13">
-        <v>42691</v>
+        <v>30</v>
+      </c>
+      <c r="H13" s="29">
+        <v>42694</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="J13" s="29">
+        <v>42695</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="18" t="s">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" s="11"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
+        <v>193</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="O13" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="P13" s="29">
+        <v>42695</v>
+      </c>
+      <c r="Q13" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
       <c r="U13" s="22"/>
       <c r="V13" s="23"/>
     </row>
-    <row r="14" spans="1:22" s="3" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" s="3" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>31</v>
+        <v>196</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>206</v>
+        <v>187</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>197</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>207</v>
+        <v>26</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>30</v>
@@ -2681,29 +2902,29 @@
         <v>42694</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="J14" s="29">
         <v>42695</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="18" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="O14" s="18" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="P14" s="29">
         <v>42695</v>
       </c>
       <c r="Q14" s="18" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="R14" s="27"/>
       <c r="S14" s="27"/>
@@ -2711,63 +2932,57 @@
       <c r="U14" s="22"/>
       <c r="V14" s="23"/>
     </row>
-    <row r="15" spans="1:22" s="3" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>215</v>
+        <v>25</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>208</v>
+      <c r="F15" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="29">
-        <v>42694</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="J15" s="29">
-        <v>42695</v>
+        <v>20</v>
+      </c>
+      <c r="H15" s="13">
+        <v>42691</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="13">
+        <v>42691</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="18" t="s">
-        <v>216</v>
+        <v>28</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="N15" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="O15" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="P15" s="29">
-        <v>42695</v>
-      </c>
-      <c r="Q15" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
+        <v>38</v>
+      </c>
+      <c r="N15" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" s="18"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
       <c r="U15" s="22"/>
       <c r="V15" s="23"/>
     </row>
-    <row r="16" spans="1:22" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -2775,49 +2990,55 @@
         <v>23</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>20</v>
       </c>
       <c r="H16" s="13">
-        <v>42691</v>
+        <v>42695</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J16" s="13">
-        <v>42691</v>
+        <v>42695</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="18" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="N16" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="O16" s="18"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="O16" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="P16" s="13">
+        <v>42695</v>
+      </c>
+      <c r="Q16" s="18" t="s">
+        <v>203</v>
+      </c>
       <c r="R16" s="16"/>
       <c r="S16" s="16"/>
       <c r="T16" s="16"/>
       <c r="U16" s="22"/>
       <c r="V16" s="23"/>
     </row>
-    <row r="17" spans="1:22" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -2825,16 +3046,16 @@
         <v>23</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>20</v>
@@ -2850,28 +3071,28 @@
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="18" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="N17" s="18" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="O17" s="18" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="P17" s="13">
         <v>42695</v>
       </c>
       <c r="Q17" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="23"/>
+        <v>203</v>
+      </c>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="25"/>
     </row>
     <row r="18" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9">
@@ -2881,16 +3102,16 @@
         <v>23</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>57</v>
+        <v>204</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>20</v>
@@ -2906,22 +3127,22 @@
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="18" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="N18" s="18" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="O18" s="18" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="P18" s="13">
         <v>42695</v>
       </c>
       <c r="Q18" s="18" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="R18" s="20"/>
       <c r="S18" s="20"/>
@@ -2929,27 +3150,27 @@
       <c r="U18" s="24"/>
       <c r="V18" s="25"/>
     </row>
-    <row r="19" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:22" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>222</v>
+        <v>76</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H19" s="13">
         <v>42695</v>
@@ -2962,47 +3183,47 @@
       </c>
       <c r="K19" s="11"/>
       <c r="L19" s="18" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="N19" s="18" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="O19" s="18" t="s">
-        <v>220</v>
+        <v>93</v>
       </c>
       <c r="P19" s="13">
         <v>42695</v>
       </c>
       <c r="Q19" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="25"/>
-    </row>
-    <row r="20" spans="1:22" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="23"/>
+    </row>
+    <row r="20" spans="1:22" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>19</v>
@@ -3018,22 +3239,22 @@
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="N20" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="M20" s="11" t="s">
+      <c r="O20" s="18" t="s">
         <v>93</v>
-      </c>
-      <c r="N20" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="O20" s="18" t="s">
-        <v>108</v>
       </c>
       <c r="P20" s="13">
         <v>42695</v>
       </c>
       <c r="Q20" s="18" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="R20" s="16"/>
       <c r="S20" s="16"/>
@@ -3041,80 +3262,80 @@
       <c r="U20" s="22"/>
       <c r="V20" s="23"/>
     </row>
-    <row r="21" spans="1:22" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>19</v>
       </c>
       <c r="H21" s="13">
-        <v>42695</v>
+        <v>42691</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J21" s="13">
-        <v>42695</v>
+        <v>42691</v>
       </c>
       <c r="K21" s="11"/>
       <c r="L21" s="18" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="M21" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="N21" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="O21" s="18" t="s">
         <v>93</v>
-      </c>
-      <c r="N21" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="O21" s="18" t="s">
-        <v>108</v>
       </c>
       <c r="P21" s="13">
         <v>42695</v>
       </c>
       <c r="Q21" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="23"/>
+        <v>94</v>
+      </c>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="25"/>
     </row>
     <row r="22" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9">
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>19</v>
@@ -3130,22 +3351,22 @@
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="18" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="M22" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="N22" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="O22" s="18" t="s">
         <v>93</v>
-      </c>
-      <c r="N22" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="O22" s="18" t="s">
-        <v>108</v>
       </c>
       <c r="P22" s="13">
         <v>42695</v>
       </c>
       <c r="Q22" s="18" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="R22" s="20"/>
       <c r="S22" s="20"/>
@@ -3158,214 +3379,214 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>19</v>
       </c>
       <c r="H23" s="13">
-        <v>42691</v>
+        <v>42694</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J23" s="13">
-        <v>42691</v>
+        <v>42694</v>
       </c>
       <c r="K23" s="11"/>
       <c r="L23" s="18" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="N23" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="O23" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="P23" s="13">
-        <v>42695</v>
-      </c>
-      <c r="Q23" s="18" t="s">
-        <v>109</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="O23" s="18"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="18"/>
       <c r="R23" s="20"/>
       <c r="S23" s="20"/>
       <c r="T23" s="20"/>
       <c r="U23" s="24"/>
       <c r="V23" s="25"/>
     </row>
-    <row r="24" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:22" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9">
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>101</v>
-      </c>
       <c r="E24" s="11" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>19</v>
       </c>
       <c r="H24" s="13">
-        <v>42694</v>
+        <v>42695</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J24" s="13">
-        <v>42694</v>
+        <v>42695</v>
       </c>
       <c r="K24" s="11"/>
       <c r="L24" s="18" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="M24" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="N24" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="O24" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="N24" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="O24" s="18"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="18"/>
+      <c r="P24" s="13">
+        <v>42695</v>
+      </c>
+      <c r="Q24" s="18" t="s">
+        <v>94</v>
+      </c>
       <c r="R24" s="20"/>
       <c r="S24" s="20"/>
       <c r="T24" s="20"/>
       <c r="U24" s="24"/>
       <c r="V24" s="25"/>
     </row>
-    <row r="25" spans="1:22" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:22" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="9">
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>19</v>
       </c>
       <c r="H25" s="13">
-        <v>42695</v>
+        <v>42696</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J25" s="13">
-        <v>42695</v>
+        <v>42696</v>
       </c>
       <c r="K25" s="11"/>
       <c r="L25" s="18" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="N25" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="O25" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="P25" s="13">
-        <v>42695</v>
-      </c>
-      <c r="Q25" s="18" t="s">
-        <v>109</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="O25" s="18"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="18"/>
       <c r="R25" s="20"/>
       <c r="S25" s="20"/>
       <c r="T25" s="20"/>
       <c r="U25" s="24"/>
       <c r="V25" s="25"/>
     </row>
-    <row r="26" spans="1:22" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>106</v>
+        <v>205</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>50</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>91</v>
+        <v>26</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="13">
-        <v>42696</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" s="13">
-        <v>42696</v>
+        <v>30</v>
+      </c>
+      <c r="H26" s="29">
+        <v>42691</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="29">
+        <v>42691</v>
       </c>
       <c r="K26" s="11"/>
       <c r="L26" s="18" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="N26" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="O26" s="18"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="25"/>
-    </row>
-    <row r="27" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="O26" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="P26" s="29">
+        <v>42695</v>
+      </c>
+      <c r="Q26" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="23"/>
+    </row>
+    <row r="27" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -3373,16 +3594,16 @@
         <v>31</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>57</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>30</v>
@@ -3398,22 +3619,22 @@
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="18" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>69</v>
+        <v>206</v>
       </c>
       <c r="O27" s="18" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="P27" s="29">
         <v>42695</v>
       </c>
       <c r="Q27" s="18" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="R27" s="27"/>
       <c r="S27" s="27"/>
@@ -3432,44 +3653,44 @@
         <v>32</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H28" s="29">
-        <v>42691</v>
+        <v>42692</v>
       </c>
       <c r="I28" s="13" t="s">
         <v>30</v>
       </c>
       <c r="J28" s="29">
-        <v>42691</v>
+        <v>42692</v>
       </c>
       <c r="K28" s="11"/>
       <c r="L28" s="18" t="s">
-        <v>73</v>
+        <v>207</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="O28" s="18" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="P28" s="29">
         <v>42695</v>
       </c>
       <c r="Q28" s="18" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="R28" s="27"/>
       <c r="S28" s="27"/>
@@ -3488,13 +3709,13 @@
         <v>32</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>30</v>
@@ -3510,22 +3731,22 @@
       </c>
       <c r="K29" s="11"/>
       <c r="L29" s="18" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="O29" s="18" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="P29" s="29">
         <v>42695</v>
       </c>
       <c r="Q29" s="18" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="R29" s="27"/>
       <c r="S29" s="27"/>
@@ -3544,44 +3765,44 @@
         <v>32</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H30" s="29">
-        <v>42692</v>
+        <v>42693</v>
       </c>
       <c r="I30" s="13" t="s">
         <v>30</v>
       </c>
       <c r="J30" s="29">
-        <v>42692</v>
+        <v>42693</v>
       </c>
       <c r="K30" s="11"/>
       <c r="L30" s="18" t="s">
-        <v>227</v>
+        <v>63</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="O30" s="18" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="P30" s="29">
         <v>42695</v>
       </c>
       <c r="Q30" s="18" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="R30" s="27"/>
       <c r="S30" s="27"/>
@@ -3597,47 +3818,47 @@
         <v>31</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>30</v>
+        <v>214</v>
       </c>
       <c r="H31" s="29">
-        <v>42693</v>
+        <v>42694</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>30</v>
       </c>
       <c r="J31" s="29">
-        <v>42693</v>
+        <v>42694</v>
       </c>
       <c r="K31" s="11"/>
       <c r="L31" s="18" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="O31" s="18" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="P31" s="29">
         <v>42695</v>
       </c>
       <c r="Q31" s="18" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="R31" s="27"/>
       <c r="S31" s="27"/>
@@ -3653,51 +3874,51 @@
         <v>31</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>230</v>
+        <v>32</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>231</v>
+        <v>64</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>232</v>
+        <v>30</v>
       </c>
       <c r="H32" s="29">
-        <v>42694</v>
+        <v>42695</v>
       </c>
       <c r="I32" s="13" t="s">
         <v>30</v>
       </c>
       <c r="J32" s="29">
-        <v>42694</v>
+        <v>42695</v>
       </c>
       <c r="K32" s="11"/>
       <c r="L32" s="18" t="s">
-        <v>78</v>
+        <v>215</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="N32" s="11" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="O32" s="18" t="s">
-        <v>70</v>
+        <v>216</v>
       </c>
       <c r="P32" s="29">
         <v>42695</v>
       </c>
       <c r="Q32" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="R32" s="27"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
+        <v>56</v>
+      </c>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
       <c r="U32" s="22"/>
       <c r="V32" s="23"/>
     </row>
@@ -3712,13 +3933,13 @@
         <v>32</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>30</v>
@@ -3734,30 +3955,30 @@
       </c>
       <c r="K33" s="11"/>
       <c r="L33" s="18" t="s">
-        <v>233</v>
+        <v>66</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="N33" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O33" s="18" t="s">
-        <v>234</v>
+        <v>55</v>
       </c>
       <c r="P33" s="29">
         <v>42695</v>
       </c>
       <c r="Q33" s="18" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="R33" s="16"/>
       <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
+      <c r="T33" s="27"/>
       <c r="U33" s="22"/>
       <c r="V33" s="23"/>
     </row>
-    <row r="34" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:22" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -3768,13 +3989,13 @@
         <v>32</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>235</v>
+        <v>68</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>30</v>
@@ -3789,23 +4010,23 @@
         <v>42695</v>
       </c>
       <c r="K34" s="11"/>
-      <c r="L34" s="18" t="s">
-        <v>81</v>
+      <c r="L34" s="9" t="s">
+        <v>218</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="N34" s="11" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="O34" s="18" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="P34" s="29">
         <v>42695</v>
       </c>
       <c r="Q34" s="18" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="R34" s="16"/>
       <c r="S34" s="16"/>
@@ -3813,7 +4034,7 @@
       <c r="U34" s="22"/>
       <c r="V34" s="23"/>
     </row>
-    <row r="35" spans="1:22" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
         <v>34</v>
       </c>
@@ -3824,13 +4045,13 @@
         <v>32</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>30</v>
@@ -3846,22 +4067,22 @@
       </c>
       <c r="K35" s="11"/>
       <c r="L35" s="9" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="O35" s="18" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="P35" s="29">
         <v>42695</v>
       </c>
       <c r="Q35" s="18" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="R35" s="16"/>
       <c r="S35" s="16"/>
@@ -3880,13 +4101,13 @@
         <v>32</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>84</v>
+        <v>220</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>30</v>
@@ -3898,26 +4119,26 @@
         <v>30</v>
       </c>
       <c r="J36" s="29">
-        <v>42695</v>
+        <v>42696</v>
       </c>
       <c r="K36" s="11"/>
-      <c r="L36" s="9" t="s">
-        <v>237</v>
+      <c r="L36" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="N36" s="11" t="s">
-        <v>85</v>
+        <v>222</v>
       </c>
       <c r="O36" s="18" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="P36" s="29">
         <v>42695</v>
       </c>
       <c r="Q36" s="18" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="R36" s="16"/>
       <c r="S36" s="16"/>
@@ -3925,61 +4146,28 @@
       <c r="U36" s="22"/>
       <c r="V36" s="23"/>
     </row>
-    <row r="37" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="9">
-        <v>36</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H37" s="29">
-        <v>42695</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J37" s="29">
-        <v>42696</v>
-      </c>
-      <c r="K37" s="11"/>
-      <c r="L37" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="M37" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="N37" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="O37" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="P37" s="29">
-        <v>42695</v>
-      </c>
-      <c r="Q37" s="18" t="s">
-        <v>71</v>
-      </c>
+    <row r="37" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="15"/>
       <c r="R37" s="16"/>
       <c r="S37" s="16"/>
-      <c r="T37" s="27"/>
-      <c r="U37" s="22"/>
-      <c r="V37" s="23"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="15"/>
     </row>
     <row r="38" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="16"/>
@@ -4954,7 +5142,7 @@
       <c r="D80" s="15"/>
       <c r="E80" s="16"/>
       <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
+      <c r="G80" s="16"/>
       <c r="H80" s="17"/>
       <c r="I80" s="16"/>
       <c r="J80" s="17"/>
@@ -5085,13 +5273,13 @@
       <c r="T85" s="16"/>
       <c r="U85" s="15"/>
     </row>
-    <row r="86" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A86" s="16"/>
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
       <c r="D86" s="15"/>
       <c r="E86" s="16"/>
-      <c r="F86" s="11"/>
+      <c r="F86" s="16"/>
       <c r="G86" s="16"/>
       <c r="H86" s="17"/>
       <c r="I86" s="16"/>
@@ -6621,9 +6809,6 @@
       <c r="O152" s="16"/>
       <c r="P152" s="17"/>
       <c r="Q152" s="15"/>
-      <c r="R152" s="16"/>
-      <c r="S152" s="16"/>
-      <c r="T152" s="16"/>
       <c r="U152" s="15"/>
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.15">
@@ -7188,19 +7373,6 @@
     </row>
     <row r="181" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A181" s="16"/>
-      <c r="B181" s="16"/>
-      <c r="C181" s="16"/>
-      <c r="D181" s="15"/>
-      <c r="E181" s="16"/>
-      <c r="F181" s="16"/>
-      <c r="G181" s="16"/>
-      <c r="H181" s="17"/>
-      <c r="I181" s="16"/>
-      <c r="J181" s="17"/>
-      <c r="K181" s="21"/>
-      <c r="L181" s="16"/>
-      <c r="M181" s="16"/>
-      <c r="N181" s="16"/>
       <c r="O181" s="16"/>
       <c r="P181" s="17"/>
       <c r="Q181" s="15"/>
@@ -7215,7 +7387,6 @@
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A183" s="16"/>
-      <c r="O183" s="16"/>
       <c r="P183" s="17"/>
       <c r="Q183" s="15"/>
       <c r="U183" s="15"/>
@@ -7228,7 +7399,6 @@
     </row>
     <row r="185" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A185" s="16"/>
-      <c r="P185" s="17"/>
       <c r="Q185" s="15"/>
       <c r="U185" s="15"/>
     </row>
@@ -7236,11 +7406,6 @@
       <c r="A186" s="16"/>
       <c r="Q186" s="15"/>
       <c r="U186" s="15"/>
-    </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A187" s="16"/>
-      <c r="Q187" s="15"/>
-      <c r="U187" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:U8"/>
@@ -7252,10 +7417,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7263,119 +7428,161 @@
     <col min="1" max="1" width="4.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.375" customWidth="1"/>
+    <col min="8" max="8" width="20.375" customWidth="1"/>
     <col min="13" max="13" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="51" t="s">
-        <v>170</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="52"/>
+      <c r="A1" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="51"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="45" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="G3" s="46" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="H3" s="45" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="I3" s="45" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="J3" s="45" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="K3" s="45" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="L3" s="45" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="M3" s="47" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="66" x14ac:dyDescent="0.15">
       <c r="A4" s="48">
         <v>1</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="F4" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>249</v>
+        <v>228</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>229</v>
       </c>
       <c r="H4" s="49" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="I4" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="48" t="s">
-        <v>247</v>
-      </c>
-      <c r="M4" s="49" t="s">
-        <v>248</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="K4" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="L4" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="M4" s="49"/>
+    </row>
+    <row r="5" spans="1:13" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="48">
+        <v>2</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>238</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="K5" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="L5" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="M5" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7383,10 +7590,10 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F5">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I5">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7422,53 +7629,53 @@
   <sheetData>
     <row r="1" spans="1:23" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A1" s="31" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="H1" s="35"/>
       <c r="I1" s="36" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="K1" s="38" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="L1" s="39" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="M1" s="39" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="N1" s="40" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="O1" s="41" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="P1" s="42" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="Q1" s="38" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="R1" s="43">
         <v>42696</v>
@@ -7481,53 +7688,53 @@
     </row>
     <row r="2" spans="1:23" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>125</v>
-      </c>
       <c r="E2" s="33" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="O2" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="P2" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="K2" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="L2" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="M2" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="N2" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="O2" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="P2" s="42" t="s">
-        <v>131</v>
-      </c>
       <c r="Q2" s="38" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="R2" s="43">
         <v>42692</v>
@@ -7540,53 +7747,53 @@
     </row>
     <row r="3" spans="1:23" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="H3" s="35"/>
       <c r="I3" s="36" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="J3" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="L3" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="M3" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="O3" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="P3" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="K3" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="L3" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="M3" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="N3" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="O3" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="P3" s="42" t="s">
-        <v>131</v>
-      </c>
       <c r="Q3" s="38" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="R3" s="43">
         <v>42692</v>
@@ -7599,53 +7806,53 @@
     </row>
     <row r="4" spans="1:23" s="44" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="31" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="H4" s="35"/>
       <c r="I4" s="36" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="L4" s="39" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="M4" s="39" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="N4" s="40" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="O4" s="41" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="P4" s="42" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="Q4" s="38" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="R4" s="43">
         <v>38353</v>
@@ -7653,53 +7860,53 @@
     </row>
     <row r="5" spans="1:23" s="44" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>155</v>
-      </c>
       <c r="E5" s="33" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="H5" s="35"/>
       <c r="I5" s="36" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="L5" s="39" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="M5" s="39" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="N5" s="40" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="O5" s="41" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="P5" s="42" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="Q5" s="38" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="R5" s="43">
         <v>42692</v>
@@ -7707,53 +7914,53 @@
     </row>
     <row r="6" spans="1:23" s="44" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="31" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="H6" s="35"/>
       <c r="I6" s="36" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="J6" s="37" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="L6" s="39" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="M6" s="39" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="N6" s="40" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="O6" s="41" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="P6" s="42" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="Q6" s="38" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="R6" s="43">
         <v>42692</v>

--- a/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1.xlsx
+++ b/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1.xlsx
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.1.1 新特性|Fix Bug'!$A$1:$U$8</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="264">
   <si>
     <t>No</t>
   </si>
@@ -329,10 +329,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>王向阳</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>风控名单管理二期</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -352,10 +348,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>张浩</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>张浩、傅其亮、苏国泰</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -449,281 +441,22 @@
     <t>能</t>
   </si>
   <si>
-    <t>mogoroom-tasktracker</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoomScorePreTask</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>前一天0点0分0秒截止到当前时间房源排序前置数据</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭晓春</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>史欣欣</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>未上线</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>否</t>
   </si>
   <si>
-    <t>昨天凌晨截止到当前时间有变化的房源、公寓对应的房源排序前置数据</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>房源排序前置数据定时器</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.mogoroom.tasktracker.task.RoomScorePreTask</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"taskImpl":"com.mogoroom.tasktracker.task.RoomScorePreTask"}</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时每天任务</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>每日02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>:30:00执行</t>
-    </r>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>尝试重复执行，如有错，需开发修复</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoomOffInfoTask</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <t>不尝试重复执行，如有错，需开发修复</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>历史房源下架次数扫描</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>王向阳</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>王岩</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送昨日聚有财放款短信</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.mogoroom.tasktracker.task.RoomOffInfoTask</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"taskImpl":"com.mogoroom.tasktracker.task.RoomOffInfoTask"}</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日05:00:00执行</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>不尝试重复执行，如有错，需开发修复</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>RiskSpecialListTask</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>风控名单失效</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>张浩</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改风控名单失效状态</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.mogoroom.tasktracker.task.RiskSpecialListTask</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>{"taskImpl":"com.mogoroom.tasktracker.task.RiskSpecialListTask"}</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据错误日志，查询原因，进行修复</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>mogoroom-tasktracker</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>FlatRoomPictureTask</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>MsgSendPayPlanTask</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送聚有财放款短信</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕崇新</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕崇新</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨斌</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>未上线</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送昨日聚有财放款短信</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.mogoroom.tasktracker.task.MsgSendPayPlanTask</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"taskImpl":"com.mogoroom.tasktracker.task.MsgSendPayPlanTask"}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时每天任务</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>每日0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>9:00:00执行</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>不尝试重复执行，如有错，需开发修复</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoomOffInfoTask</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史房源下架次数扫描</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>王岩</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>未上线</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.mogoroom.tasktracker.task.RoomOffInfoTask</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"taskImpl":"com.mogoroom.tasktracker.task.RoomOffInfoTask"}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>每日05</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>:00:00执行</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>不尝试重复执行，如有错，需开发修复</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>RiskSpecialListTask</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>风控名单失效</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>王岩</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>未上线</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改风控名单失效状态</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.mogoroom.tasktracker.task.RiskSpecialListTask</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"taskImpl":"com.mogoroom.tasktracker.task.RiskSpecialListTask"}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据错误日志，查询原因，进行修复</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1000,73 +733,73 @@
   </si>
   <si>
     <t>极光组</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>5.1.1</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>消息独立包</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>systemconfig.properties</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>修改</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>sysconfig.mail_api_key=jXx7go4VP5mxxsuk
 修改为
 sysconfig.mail_api_key=342843941D7314D9501BD2F9E78B9A064788530961C1743A441BD5B44098A04F</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>发送邮件的邮箱修改为密文</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>苏玉军</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>杨斌</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>极光组</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>5.1.1</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>所有包</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>MogoBaoProtocolTemplet_JYC.vm</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>请将模板文件替换目录  /var/lib/docker/contract/template/ 下的原文件，新的模板请见“配置文件/合同/MogoBaoProtocolTemplet_JYC.vm”</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>修改聚有财蘑菇宝合同模板</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>吕崇新</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>杨斌</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>重要</t>
@@ -1243,13 +976,152 @@
   <si>
     <t>王云飞</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>上线版本</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务类型</t>
+  </si>
+  <si>
+    <t>执行节点</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术经理</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发人</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用与否</t>
+  </si>
+  <si>
+    <t>可否删除</t>
+  </si>
+  <si>
+    <t>定时器类名称</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crontab定时任务</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTS中定时器名称</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTS中定时器执行参数</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期</t>
+  </si>
+  <si>
+    <t>是否依赖其他job</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行结果及报错补救方案</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogo_trade_TaskTracker</t>
+  </si>
+  <si>
+    <t>磐石组</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>王向阳</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.RoomOffInfoTask</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不用填</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomOffInfoTask</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.RoomOffInfoTask"}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时任务</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日05:00:00执行</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogo_trade_TaskTracker</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>风控名单失效</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.RiskSpecialListTask</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不用填</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>RiskSpecialListTask</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时任务</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不尝试重复执行，如有错，需开发修复</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1333,40 +1205,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="major"/>
     </font>
     <font>
       <b/>
@@ -1396,8 +1238,43 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="63"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1424,13 +1301,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1542,7 +1424,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1564,8 +1446,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1659,86 +1548,92 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="12">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
+    <cellStyle name="常规 2 2" xfId="11"/>
     <cellStyle name="常规 3" xfId="6"/>
     <cellStyle name="常规 3 12" xfId="4"/>
     <cellStyle name="常规 4" xfId="7"/>
+    <cellStyle name="常规 5" xfId="10"/>
     <cellStyle name="常规 6" xfId="1"/>
     <cellStyle name="常规 7" xfId="8"/>
     <cellStyle name="常规 9" xfId="3"/>
     <cellStyle name="甘特图" xfId="2"/>
+    <cellStyle name="着色 4" xfId="9" builtinId="41"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2111,7 +2006,7 @@
   <dimension ref="A1:V186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2210,50 +2105,50 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="H2" s="13">
         <v>42695</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="J2" s="13">
         <v>42695</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="18" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>176</v>
+        <v>119</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="P2" s="13">
         <v>42695</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="R2" s="27"/>
       <c r="S2" s="27"/>
@@ -2266,48 +2161,48 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>180</v>
+        <v>123</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11" t="s">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="H3" s="13">
         <v>42696</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="J3" s="13">
         <v>42696</v>
       </c>
       <c r="K3" s="21"/>
       <c r="L3" s="18" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="M3" s="18" t="s">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="O3" s="18" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="P3" s="13">
         <v>42696</v>
       </c>
       <c r="Q3" s="18" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="R3" s="16">
         <v>5199</v>
@@ -2321,22 +2216,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>241</v>
+        <v>184</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>242</v>
+        <v>185</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>243</v>
+        <v>186</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>244</v>
+        <v>187</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>245</v>
+        <v>188</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="H4" s="13">
         <v>42691</v>
@@ -2349,22 +2244,22 @@
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="18" t="s">
-        <v>247</v>
+        <v>190</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>24</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>248</v>
+        <v>191</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="P4" s="13">
         <v>42691</v>
       </c>
       <c r="Q4" s="18" t="s">
-        <v>249</v>
+        <v>192</v>
       </c>
       <c r="R4" s="16"/>
       <c r="S4" s="16"/>
@@ -2377,22 +2272,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>250</v>
+        <v>193</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>251</v>
+        <v>194</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>252</v>
+        <v>195</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>244</v>
+        <v>187</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>253</v>
+        <v>196</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="H5" s="13">
         <v>42691</v>
@@ -2411,16 +2306,16 @@
         <v>24</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>248</v>
+        <v>191</v>
       </c>
       <c r="O5" s="18" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="P5" s="13">
         <v>42691</v>
       </c>
       <c r="Q5" s="18" t="s">
-        <v>254</v>
+        <v>197</v>
       </c>
       <c r="R5" s="16"/>
       <c r="S5" s="16"/>
@@ -2433,19 +2328,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>250</v>
+        <v>193</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>255</v>
+        <v>198</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>257</v>
+        <v>200</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>20</v>
@@ -2464,19 +2359,19 @@
         <v>33</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>258</v>
+        <v>201</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>248</v>
+        <v>191</v>
       </c>
       <c r="O6" s="18" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="P6" s="13">
         <v>42691</v>
       </c>
       <c r="Q6" s="18" t="s">
-        <v>259</v>
+        <v>202</v>
       </c>
       <c r="R6" s="20"/>
       <c r="S6" s="20"/>
@@ -2489,19 +2384,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>260</v>
+        <v>203</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>261</v>
+        <v>204</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>262</v>
+        <v>205</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>20</v>
@@ -2523,16 +2418,16 @@
         <v>24</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>263</v>
+        <v>206</v>
       </c>
       <c r="O7" s="18" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="P7" s="13">
         <v>42691</v>
       </c>
       <c r="Q7" s="18" t="s">
-        <v>264</v>
+        <v>207</v>
       </c>
       <c r="R7" s="20"/>
       <c r="S7" s="20"/>
@@ -2545,19 +2440,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>241</v>
+        <v>184</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>251</v>
+        <v>194</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>265</v>
+        <v>208</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>266</v>
+        <v>209</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>20</v>
@@ -2573,22 +2468,22 @@
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="18" t="s">
-        <v>267</v>
+        <v>210</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>268</v>
+        <v>211</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>248</v>
+        <v>191</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="P8" s="13">
         <v>42691</v>
       </c>
       <c r="Q8" s="18" t="s">
-        <v>264</v>
+        <v>207</v>
       </c>
       <c r="R8" s="20"/>
       <c r="S8" s="20"/>
@@ -2601,19 +2496,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>270</v>
+        <v>213</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>271</v>
+        <v>214</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>20</v>
@@ -2629,22 +2524,22 @@
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="18" t="s">
-        <v>272</v>
+        <v>215</v>
       </c>
       <c r="M9" s="11" t="s">
         <v>24</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="P9" s="13">
         <v>42691</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>259</v>
+        <v>202</v>
       </c>
       <c r="R9" s="20"/>
       <c r="S9" s="20"/>
@@ -2657,22 +2552,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>250</v>
+        <v>193</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>242</v>
+        <v>185</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>274</v>
+        <v>217</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>275</v>
+        <v>218</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="H10" s="13">
         <v>42691</v>
@@ -2685,22 +2580,22 @@
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="18" t="s">
-        <v>276</v>
+        <v>219</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="P10" s="13">
         <v>42691</v>
       </c>
       <c r="Q10" s="18" t="s">
-        <v>254</v>
+        <v>197</v>
       </c>
       <c r="R10" s="20"/>
       <c r="S10" s="20"/>
@@ -2713,19 +2608,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>278</v>
+        <v>221</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>251</v>
+        <v>194</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>280</v>
+        <v>223</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>20</v>
@@ -2741,22 +2636,22 @@
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="19" t="s">
-        <v>281</v>
+        <v>224</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>282</v>
+        <v>225</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>283</v>
+        <v>226</v>
       </c>
       <c r="O11" s="18" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="P11" s="13">
         <v>42691</v>
       </c>
       <c r="Q11" s="18" t="s">
-        <v>259</v>
+        <v>202</v>
       </c>
       <c r="R11" s="20"/>
       <c r="S11" s="20"/>
@@ -2769,7 +2664,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>250</v>
+        <v>193</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>25</v>
@@ -2778,10 +2673,10 @@
         <v>35</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>280</v>
+        <v>223</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>20</v>
@@ -2803,16 +2698,16 @@
         <v>24</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>284</v>
+        <v>227</v>
       </c>
       <c r="O12" s="18" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="P12" s="13">
         <v>42691</v>
       </c>
       <c r="Q12" s="18" t="s">
-        <v>259</v>
+        <v>202</v>
       </c>
       <c r="R12" s="20"/>
       <c r="S12" s="20"/>
@@ -2828,16 +2723,16 @@
         <v>31</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>30</v>
@@ -2846,20 +2741,20 @@
         <v>42694</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="J13" s="29">
         <v>42695</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="18" t="s">
-        <v>192</v>
+        <v>135</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="O13" s="18" t="s">
         <v>55</v>
@@ -2868,7 +2763,7 @@
         <v>42695</v>
       </c>
       <c r="Q13" s="18" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="R13" s="27"/>
       <c r="S13" s="27"/>
@@ -2881,19 +2776,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>30</v>
@@ -2902,20 +2797,20 @@
         <v>42694</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="J14" s="29">
         <v>42695</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="18" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="O14" s="18" t="s">
         <v>55</v>
@@ -2924,7 +2819,7 @@
         <v>42695</v>
       </c>
       <c r="Q14" s="18" t="s">
-        <v>201</v>
+        <v>144</v>
       </c>
       <c r="R14" s="27"/>
       <c r="S14" s="27"/>
@@ -3024,13 +2919,13 @@
         <v>44</v>
       </c>
       <c r="O16" s="18" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="P16" s="13">
         <v>42695</v>
       </c>
       <c r="Q16" s="18" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="R16" s="16"/>
       <c r="S16" s="16"/>
@@ -3080,13 +2975,13 @@
         <v>48</v>
       </c>
       <c r="O17" s="18" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="P17" s="13">
         <v>42695</v>
       </c>
       <c r="Q17" s="18" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
@@ -3111,7 +3006,7 @@
         <v>26</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>20</v>
@@ -3136,13 +3031,13 @@
         <v>48</v>
       </c>
       <c r="O18" s="18" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="P18" s="13">
         <v>42695</v>
       </c>
       <c r="Q18" s="18" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="R18" s="20"/>
       <c r="S18" s="20"/>
@@ -3155,19 +3050,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="E19" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="F19" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>76</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>19</v>
@@ -3183,22 +3078,22 @@
       </c>
       <c r="K19" s="11"/>
       <c r="L19" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N19" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O19" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P19" s="13">
         <v>42695</v>
       </c>
       <c r="Q19" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R19" s="16"/>
       <c r="S19" s="16"/>
@@ -3211,19 +3106,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C20" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="F20" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>19</v>
@@ -3239,22 +3134,22 @@
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O20" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P20" s="13">
         <v>42695</v>
       </c>
       <c r="Q20" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R20" s="16"/>
       <c r="S20" s="16"/>
@@ -3267,19 +3162,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C21" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="F21" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>19</v>
@@ -3295,22 +3190,22 @@
       </c>
       <c r="K21" s="11"/>
       <c r="L21" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N21" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O21" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P21" s="13">
         <v>42695</v>
       </c>
       <c r="Q21" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R21" s="20"/>
       <c r="S21" s="20"/>
@@ -3323,19 +3218,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C22" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="F22" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>19</v>
@@ -3351,22 +3246,22 @@
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N22" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O22" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P22" s="13">
         <v>42695</v>
       </c>
       <c r="Q22" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R22" s="20"/>
       <c r="S22" s="20"/>
@@ -3379,19 +3274,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C23" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="F23" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>19</v>
@@ -3407,13 +3302,13 @@
       </c>
       <c r="K23" s="11"/>
       <c r="L23" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N23" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O23" s="18"/>
       <c r="P23" s="13"/>
@@ -3429,19 +3324,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C24" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="F24" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>19</v>
@@ -3457,22 +3352,22 @@
       </c>
       <c r="K24" s="11"/>
       <c r="L24" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N24" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O24" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P24" s="13">
         <v>42695</v>
       </c>
       <c r="Q24" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R24" s="20"/>
       <c r="S24" s="20"/>
@@ -3485,19 +3380,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C25" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="F25" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>19</v>
@@ -3513,13 +3408,13 @@
       </c>
       <c r="K25" s="11"/>
       <c r="L25" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N25" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O25" s="18"/>
       <c r="P25" s="13"/>
@@ -3538,7 +3433,7 @@
         <v>31</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="D26" s="28" t="s">
         <v>50</v>
@@ -3625,7 +3520,7 @@
         <v>53</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c r="O27" s="18" t="s">
         <v>55</v>
@@ -3675,13 +3570,13 @@
       </c>
       <c r="K28" s="11"/>
       <c r="L28" s="18" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="M28" s="11" t="s">
         <v>53</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="O28" s="18" t="s">
         <v>55</v>
@@ -3709,13 +3604,13 @@
         <v>32</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>30</v>
@@ -3731,13 +3626,13 @@
       </c>
       <c r="K29" s="11"/>
       <c r="L29" s="18" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="M29" s="11" t="s">
         <v>53</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="O29" s="18" t="s">
         <v>55</v>
@@ -3765,13 +3660,13 @@
         <v>32</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>30</v>
@@ -3787,13 +3682,13 @@
       </c>
       <c r="K30" s="11"/>
       <c r="L30" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M30" s="11" t="s">
         <v>53</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="O30" s="18" t="s">
         <v>55</v>
@@ -3818,19 +3713,19 @@
         <v>31</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="H31" s="29">
         <v>42694</v>
@@ -3843,7 +3738,7 @@
       </c>
       <c r="K31" s="11"/>
       <c r="L31" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M31" s="11" t="s">
         <v>53</v>
@@ -3877,7 +3772,7 @@
         <v>32</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>26</v>
@@ -3899,7 +3794,7 @@
       </c>
       <c r="K32" s="11"/>
       <c r="L32" s="18" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="M32" s="11" t="s">
         <v>53</v>
@@ -3908,7 +3803,7 @@
         <v>54</v>
       </c>
       <c r="O32" s="18" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="P32" s="29">
         <v>42695</v>
@@ -3933,13 +3828,13 @@
         <v>32</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>30</v>
@@ -3955,13 +3850,13 @@
       </c>
       <c r="K33" s="11"/>
       <c r="L33" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M33" s="11" t="s">
         <v>53</v>
       </c>
       <c r="N33" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O33" s="18" t="s">
         <v>55</v>
@@ -3989,13 +3884,13 @@
         <v>32</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>30</v>
@@ -4011,13 +3906,13 @@
       </c>
       <c r="K34" s="11"/>
       <c r="L34" s="9" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="M34" s="11" t="s">
         <v>53</v>
       </c>
       <c r="N34" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O34" s="18" t="s">
         <v>55</v>
@@ -4045,13 +3940,13 @@
         <v>32</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>30</v>
@@ -4067,13 +3962,13 @@
       </c>
       <c r="K35" s="11"/>
       <c r="L35" s="9" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="M35" s="11" t="s">
         <v>53</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O35" s="18" t="s">
         <v>55</v>
@@ -4101,13 +3996,13 @@
         <v>32</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>221</v>
+        <v>164</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>30</v>
@@ -4123,13 +4018,13 @@
       </c>
       <c r="K36" s="11"/>
       <c r="L36" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M36" s="11" t="s">
         <v>53</v>
       </c>
       <c r="N36" s="11" t="s">
-        <v>222</v>
+        <v>165</v>
       </c>
       <c r="O36" s="18" t="s">
         <v>55</v>
@@ -7434,155 +7329,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="51"/>
+      <c r="A1" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="37"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="39"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="F3" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="G3" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="H3" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="I3" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="J3" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="K3" s="45" t="s">
+      <c r="A3" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="66" x14ac:dyDescent="0.15">
+      <c r="A4" s="34">
+        <v>1</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="I4" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="L3" s="45" t="s">
-        <v>167</v>
-      </c>
-      <c r="M3" s="47" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="66" x14ac:dyDescent="0.15">
-      <c r="A4" s="48">
-        <v>1</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>224</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>226</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="F4" s="48" t="s">
-        <v>228</v>
-      </c>
-      <c r="G4" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>230</v>
-      </c>
-      <c r="I4" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="J4" s="49" t="s">
-        <v>231</v>
-      </c>
-      <c r="K4" s="49" t="s">
-        <v>232</v>
-      </c>
-      <c r="L4" s="49" t="s">
-        <v>232</v>
-      </c>
-      <c r="M4" s="49"/>
+      <c r="J4" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="M4" s="35"/>
     </row>
     <row r="5" spans="1:13" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="48">
+      <c r="A5" s="34">
         <v>2</v>
       </c>
-      <c r="B5" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>228</v>
-      </c>
-      <c r="G5" s="49" t="s">
-        <v>237</v>
-      </c>
-      <c r="H5" s="48" t="s">
-        <v>238</v>
-      </c>
-      <c r="I5" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="J5" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="K5" s="49" t="s">
-        <v>240</v>
-      </c>
-      <c r="L5" s="49" t="s">
-        <v>240</v>
-      </c>
-      <c r="M5" s="49"/>
+      <c r="B5" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="M5" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7603,371 +7498,198 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="54.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="71.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="L1" s="43" t="s">
+        <v>237</v>
+      </c>
+      <c r="M1" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="O1" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="P1" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q1" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="R1" s="41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="E2" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="F2" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="G2" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="K2" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="L2" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="M2" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="N2" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="O2" s="53" t="s">
+        <v>253</v>
+      </c>
+      <c r="P2" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q2" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="R2" s="53"/>
+    </row>
+    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="F3" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="G3" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="I3" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="K3" s="52" t="s">
+        <v>259</v>
+      </c>
+      <c r="L3" s="51" t="s">
+        <v>260</v>
+      </c>
+      <c r="M3" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="J1" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="K1" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="L1" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="M1" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="N1" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="O1" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="P1" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q1" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="R1" s="43">
-        <v>42696</v>
-      </c>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-    </row>
-    <row r="2" spans="1:23" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="K2" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="L2" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="M2" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="N2" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="O2" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="P2" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q2" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="R2" s="43">
-        <v>42692</v>
-      </c>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-    </row>
-    <row r="3" spans="1:23" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="L3" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="M3" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="N3" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="O3" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="P3" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q3" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="R3" s="43">
-        <v>42692</v>
-      </c>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-    </row>
-    <row r="4" spans="1:23" s="44" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="H4" s="35"/>
-      <c r="I4" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="J4" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="K4" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="L4" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="M4" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="N4" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="O4" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="P4" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q4" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="R4" s="43">
-        <v>38353</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" s="44" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="L5" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="M5" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="N5" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="O5" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="P5" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q5" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="R5" s="43">
-        <v>42692</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" s="44" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="J6" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="K6" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="L6" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="M6" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="N6" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="O6" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="P6" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q6" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="R6" s="43">
-        <v>42692</v>
-      </c>
+      <c r="N3" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="O3" s="53" t="s">
+        <v>253</v>
+      </c>
+      <c r="P3" s="54" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q3" s="53" t="s">
+        <v>263</v>
+      </c>
+      <c r="R3" s="53"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1.xlsx
+++ b/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14595"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14595" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.1.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="265">
   <si>
     <t>No</t>
   </si>
@@ -444,19 +444,7 @@
     <t>否</t>
   </si>
   <si>
-    <t>不尝试重复执行，如有错，需开发修复</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史房源下架次数扫描</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>王岩</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"taskImpl":"com.mogoroom.tasktracker.task.RiskSpecialListTask"}</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1041,10 +1029,34 @@
     <t>mogo_trade_TaskTracker</t>
   </si>
   <si>
+    <t>不用填</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时任务</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogo_trade_TaskTracker</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>RiskSpecialListTask</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>磐石组</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>历史房源下架次数扫描</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>王向阳</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1081,7 +1093,15 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>mogo_trade_TaskTracker</t>
+    <t>不尝试重复执行，如有错，需开发修复</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>磐石组</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1089,7 +1109,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>启用</t>
+    <t>王岩</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1097,23 +1117,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>不用填</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>RiskSpecialListTask</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时任务</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>不尝试重复执行，如有错，需开发修复</t>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.RiskSpecialListTask"}</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1563,18 +1567,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1619,6 +1611,18 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -2005,7 +2009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -2105,50 +2109,50 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="F2" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="G2" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>116</v>
       </c>
       <c r="H2" s="13">
         <v>42695</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J2" s="13">
         <v>42695</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O2" s="18" t="s">
         <v>118</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>121</v>
       </c>
       <c r="P2" s="13">
         <v>42695</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="R2" s="27"/>
       <c r="S2" s="27"/>
@@ -2161,48 +2165,48 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H3" s="13">
         <v>42696</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J3" s="13">
         <v>42696</v>
       </c>
       <c r="K3" s="21"/>
       <c r="L3" s="18" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M3" s="18" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O3" s="18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P3" s="13">
         <v>42696</v>
       </c>
       <c r="Q3" s="18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="R3" s="16">
         <v>5199</v>
@@ -2216,22 +2220,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="F4" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="G4" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>189</v>
       </c>
       <c r="H4" s="13">
         <v>42691</v>
@@ -2244,22 +2248,22 @@
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="18" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>24</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P4" s="13">
         <v>42691</v>
       </c>
       <c r="Q4" s="18" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="R4" s="16"/>
       <c r="S4" s="16"/>
@@ -2272,22 +2276,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>196</v>
-      </c>
       <c r="G5" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H5" s="13">
         <v>42691</v>
@@ -2306,16 +2310,16 @@
         <v>24</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O5" s="18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P5" s="13">
         <v>42691</v>
       </c>
       <c r="Q5" s="18" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="R5" s="16"/>
       <c r="S5" s="16"/>
@@ -2328,19 +2332,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>20</v>
@@ -2359,19 +2363,19 @@
         <v>33</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O6" s="18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P6" s="13">
         <v>42691</v>
       </c>
       <c r="Q6" s="18" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="R6" s="20"/>
       <c r="S6" s="20"/>
@@ -2384,19 +2388,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>20</v>
@@ -2418,16 +2422,16 @@
         <v>24</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O7" s="18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P7" s="13">
         <v>42691</v>
       </c>
       <c r="Q7" s="18" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="R7" s="20"/>
       <c r="S7" s="20"/>
@@ -2440,19 +2444,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>20</v>
@@ -2468,22 +2472,22 @@
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="18" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P8" s="13">
         <v>42691</v>
       </c>
       <c r="Q8" s="18" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="R8" s="20"/>
       <c r="S8" s="20"/>
@@ -2496,19 +2500,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>20</v>
@@ -2524,22 +2528,22 @@
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="18" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M9" s="11" t="s">
         <v>24</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P9" s="13">
         <v>42691</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="R9" s="20"/>
       <c r="S9" s="20"/>
@@ -2552,22 +2556,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H10" s="13">
         <v>42691</v>
@@ -2580,22 +2584,22 @@
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="18" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P10" s="13">
         <v>42691</v>
       </c>
       <c r="Q10" s="18" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="R10" s="20"/>
       <c r="S10" s="20"/>
@@ -2608,19 +2612,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>20</v>
@@ -2636,22 +2640,22 @@
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="19" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O11" s="18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P11" s="13">
         <v>42691</v>
       </c>
       <c r="Q11" s="18" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="R11" s="20"/>
       <c r="S11" s="20"/>
@@ -2664,7 +2668,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>25</v>
@@ -2673,10 +2677,10 @@
         <v>35</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>20</v>
@@ -2698,16 +2702,16 @@
         <v>24</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="O12" s="18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P12" s="13">
         <v>42691</v>
       </c>
       <c r="Q12" s="18" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="R12" s="20"/>
       <c r="S12" s="20"/>
@@ -2723,16 +2727,16 @@
         <v>31</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>130</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>133</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>30</v>
@@ -2741,20 +2745,20 @@
         <v>42694</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J13" s="29">
         <v>42695</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="O13" s="18" t="s">
         <v>55</v>
@@ -2763,7 +2767,7 @@
         <v>42695</v>
       </c>
       <c r="Q13" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R13" s="27"/>
       <c r="S13" s="27"/>
@@ -2776,19 +2780,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>30</v>
@@ -2797,20 +2801,20 @@
         <v>42694</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J14" s="29">
         <v>42695</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O14" s="18" t="s">
         <v>55</v>
@@ -2819,7 +2823,7 @@
         <v>42695</v>
       </c>
       <c r="Q14" s="18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="R14" s="27"/>
       <c r="S14" s="27"/>
@@ -2919,13 +2923,13 @@
         <v>44</v>
       </c>
       <c r="O16" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P16" s="13">
         <v>42695</v>
       </c>
       <c r="Q16" s="18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="R16" s="16"/>
       <c r="S16" s="16"/>
@@ -2975,13 +2979,13 @@
         <v>48</v>
       </c>
       <c r="O17" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P17" s="13">
         <v>42695</v>
       </c>
       <c r="Q17" s="18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
@@ -3006,7 +3010,7 @@
         <v>26</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>20</v>
@@ -3031,13 +3035,13 @@
         <v>48</v>
       </c>
       <c r="O18" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P18" s="13">
         <v>42695</v>
       </c>
       <c r="Q18" s="18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="R18" s="20"/>
       <c r="S18" s="20"/>
@@ -3433,7 +3437,7 @@
         <v>31</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D26" s="28" t="s">
         <v>50</v>
@@ -3520,7 +3524,7 @@
         <v>53</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O27" s="18" t="s">
         <v>55</v>
@@ -3570,13 +3574,13 @@
       </c>
       <c r="K28" s="11"/>
       <c r="L28" s="18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M28" s="11" t="s">
         <v>53</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O28" s="18" t="s">
         <v>55</v>
@@ -3626,13 +3630,13 @@
       </c>
       <c r="K29" s="11"/>
       <c r="L29" s="18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M29" s="11" t="s">
         <v>53</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O29" s="18" t="s">
         <v>55</v>
@@ -3660,7 +3664,7 @@
         <v>32</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>26</v>
@@ -3688,7 +3692,7 @@
         <v>53</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O30" s="18" t="s">
         <v>55</v>
@@ -3713,10 +3717,10 @@
         <v>31</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>26</v>
@@ -3725,7 +3729,7 @@
         <v>61</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H31" s="29">
         <v>42694</v>
@@ -3794,7 +3798,7 @@
       </c>
       <c r="K32" s="11"/>
       <c r="L32" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M32" s="11" t="s">
         <v>53</v>
@@ -3803,7 +3807,7 @@
         <v>54</v>
       </c>
       <c r="O32" s="18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P32" s="29">
         <v>42695</v>
@@ -3828,7 +3832,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>26</v>
@@ -3906,7 +3910,7 @@
       </c>
       <c r="K34" s="11"/>
       <c r="L34" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M34" s="11" t="s">
         <v>53</v>
@@ -3962,7 +3966,7 @@
       </c>
       <c r="K35" s="11"/>
       <c r="L35" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M35" s="11" t="s">
         <v>53</v>
@@ -3996,13 +4000,13 @@
         <v>32</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>30</v>
@@ -4024,7 +4028,7 @@
         <v>53</v>
       </c>
       <c r="N36" s="11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O36" s="18" t="s">
         <v>55</v>
@@ -7329,73 +7333,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="37"/>
+      <c r="A1" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="E3" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="F3" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="G3" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="H3" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="I3" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="J3" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="K3" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="L3" s="31" t="s">
         <v>107</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="K3" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="L3" s="31" t="s">
-        <v>110</v>
       </c>
       <c r="M3" s="33" t="s">
         <v>18</v>
@@ -7406,37 +7410,37 @@
         <v>1</v>
       </c>
       <c r="B4" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="F4" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="G4" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="H4" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="I4" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="J4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="K4" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>175</v>
-      </c>
       <c r="L4" s="35" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M4" s="35"/>
     </row>
@@ -7445,37 +7449,37 @@
         <v>2</v>
       </c>
       <c r="B5" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="F5" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="H5" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="I5" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="J5" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="F5" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="G5" s="35" t="s">
+      <c r="K5" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="H5" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="J5" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="K5" s="35" t="s">
-        <v>183</v>
-      </c>
       <c r="L5" s="35" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M5" s="35"/>
     </row>
@@ -7500,8 +7504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7525,168 +7529,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="G1" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="H1" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="D1" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="41" t="s">
+      <c r="I1" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="J1" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="K1" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="L1" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="M1" s="39" t="s">
         <v>235</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="N1" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="O1" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="P1" s="37" t="s">
         <v>237</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="Q1" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="N1" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="O1" s="41" t="s">
+      <c r="R1" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="B2" s="41" t="s">
         <v>240</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="C2" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="R1" s="41" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="44" t="s">
+      <c r="D2" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="I2" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="47" t="s">
+        <v>251</v>
+      </c>
+      <c r="K2" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="L2" s="47" t="s">
+        <v>253</v>
+      </c>
+      <c r="M2" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="N2" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="O2" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="P2" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q2" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="R2" s="49"/>
+    </row>
+    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>261</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="K3" s="48" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="L3" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="M3" s="47" t="s">
+        <v>264</v>
+      </c>
+      <c r="N3" s="47" t="s">
         <v>243</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="O3" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="P3" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="D2" s="46" t="s">
-        <v>245</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="H2" s="49" t="s">
-        <v>247</v>
-      </c>
-      <c r="I2" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" s="51" t="s">
-        <v>248</v>
-      </c>
-      <c r="K2" s="52" t="s">
-        <v>249</v>
-      </c>
-      <c r="L2" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="M2" s="51" t="s">
-        <v>251</v>
-      </c>
-      <c r="N2" s="51" t="s">
-        <v>252</v>
-      </c>
-      <c r="O2" s="53" t="s">
-        <v>253</v>
-      </c>
-      <c r="P2" s="54" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q2" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="R2" s="53"/>
-    </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="44" t="s">
-        <v>242</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>255</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>245</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>256</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="H3" s="49" t="s">
-        <v>257</v>
-      </c>
-      <c r="I3" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="J3" s="51" t="s">
+      <c r="Q3" s="49" t="s">
         <v>258</v>
       </c>
-      <c r="K3" s="52" t="s">
-        <v>259</v>
-      </c>
-      <c r="L3" s="51" t="s">
-        <v>260</v>
-      </c>
-      <c r="M3" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="N3" s="51" t="s">
-        <v>261</v>
-      </c>
-      <c r="O3" s="53" t="s">
-        <v>253</v>
-      </c>
-      <c r="P3" s="54" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q3" s="53" t="s">
-        <v>263</v>
-      </c>
-      <c r="R3" s="53"/>
+      <c r="R3" s="49"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>

--- a/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1.xlsx
+++ b/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1.xlsx
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.1.1 新特性|Fix Bug'!$A$1:$U$8</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="274">
   <si>
     <t>No</t>
   </si>
@@ -1118,6 +1118,42 @@
   </si>
   <si>
     <t>{"taskImpl":"com.mogoroom.tasktracker.task.RiskSpecialListTask"}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>前一天0点0分0秒截止到当天0点0分0秒房源排序前置数据</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>史欣欣</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.RoomScorePreTask</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomScorePreTask</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.RoomScorePreTask"}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时任务</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日02:30执行</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>可重复执行，如有错，需开发修复</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -7502,10 +7538,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7692,6 +7728,60 @@
       </c>
       <c r="R3" s="49"/>
     </row>
+    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>267</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="K4" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="L4" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="M4" s="47" t="s">
+        <v>270</v>
+      </c>
+      <c r="N4" s="47" t="s">
+        <v>271</v>
+      </c>
+      <c r="O4" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="P4" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q4" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="R4" s="49"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1.xlsx
+++ b/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14595" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14595"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.1.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -2045,8 +2045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V186"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7540,7 +7540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1.xlsx
+++ b/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 5.1.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 5.1.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="274">
   <si>
     <t>No</t>
   </si>
@@ -1160,7 +1160,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2046,7 +2046,7 @@
   <dimension ref="A1:V186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2209,7 +2209,9 @@
       <c r="D3" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="11" t="s">
+        <v>214</v>
+      </c>
       <c r="F3" s="11" t="s">
         <v>123</v>
       </c>
@@ -7346,7 +7348,7 @@
   <autoFilter ref="A1:U8"/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1.xlsx
+++ b/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 5.1.1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14595"/>
   </bookViews>
@@ -1160,8 +1155,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1276,6 +1271,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1673,7 +1669,7 @@
     <cellStyle name="常规 7" xfId="8"/>
     <cellStyle name="常规 9" xfId="3"/>
     <cellStyle name="甘特图" xfId="2"/>
-    <cellStyle name="着色 4" xfId="9" builtinId="41"/>
+    <cellStyle name="强调文字颜色 4" xfId="9" builtinId="41"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1703,6 +1699,74 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1722,7 +1786,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2042,14 +2106,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="5" customWidth="1"/>
     <col min="2" max="3" width="12.375" style="5" customWidth="1"/>
@@ -2075,7 +2139,7 @@
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="27">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2140,7 +2204,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" s="3" customFormat="1" ht="26.25" customHeight="1">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2196,7 +2260,7 @@
       <c r="U2" s="22"/>
       <c r="V2" s="23"/>
     </row>
-    <row r="3" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" ht="16.5">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -2253,7 +2317,7 @@
       <c r="T3" s="16"/>
       <c r="U3" s="15"/>
     </row>
-    <row r="4" spans="1:22" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -2309,7 +2373,7 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:22" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" s="3" customFormat="1" ht="26.25" customHeight="1">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -2365,7 +2429,7 @@
       <c r="U5" s="22"/>
       <c r="V5" s="23"/>
     </row>
-    <row r="6" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -2421,7 +2485,7 @@
       <c r="U6" s="24"/>
       <c r="V6" s="25"/>
     </row>
-    <row r="7" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -2477,7 +2541,7 @@
       <c r="U7" s="24"/>
       <c r="V7" s="25"/>
     </row>
-    <row r="8" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -2533,7 +2597,7 @@
       <c r="U8" s="24"/>
       <c r="V8" s="25"/>
     </row>
-    <row r="9" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -2589,7 +2653,7 @@
       <c r="U9" s="24"/>
       <c r="V9" s="25"/>
     </row>
-    <row r="10" spans="1:22" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -2639,13 +2703,15 @@
       <c r="Q10" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="R10" s="20"/>
+      <c r="R10" s="20">
+        <v>5231</v>
+      </c>
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
       <c r="U10" s="24"/>
       <c r="V10" s="25"/>
     </row>
-    <row r="11" spans="1:22" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" s="4" customFormat="1" ht="16.5">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -2701,7 +2767,7 @@
       <c r="U11" s="24"/>
       <c r="V11" s="25"/>
     </row>
-    <row r="12" spans="1:22" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -2757,7 +2823,7 @@
       <c r="U12" s="24"/>
       <c r="V12" s="25"/>
     </row>
-    <row r="13" spans="1:22" s="3" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" s="3" customFormat="1" ht="83.25" customHeight="1">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -2813,7 +2879,7 @@
       <c r="U13" s="22"/>
       <c r="V13" s="23"/>
     </row>
-    <row r="14" spans="1:22" s="3" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" s="3" customFormat="1" ht="81.75" customHeight="1">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -2869,7 +2935,7 @@
       <c r="U14" s="22"/>
       <c r="V14" s="23"/>
     </row>
-    <row r="15" spans="1:22" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -2919,7 +2985,7 @@
       <c r="U15" s="22"/>
       <c r="V15" s="23"/>
     </row>
-    <row r="16" spans="1:22" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" s="3" customFormat="1" ht="26.25" customHeight="1">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -2975,7 +3041,7 @@
       <c r="U16" s="22"/>
       <c r="V16" s="23"/>
     </row>
-    <row r="17" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -3031,7 +3097,7 @@
       <c r="U17" s="24"/>
       <c r="V17" s="25"/>
     </row>
-    <row r="18" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -3087,7 +3153,7 @@
       <c r="U18" s="24"/>
       <c r="V18" s="25"/>
     </row>
-    <row r="19" spans="1:22" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:22" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -3143,7 +3209,7 @@
       <c r="U19" s="22"/>
       <c r="V19" s="23"/>
     </row>
-    <row r="20" spans="1:22" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:22" s="3" customFormat="1" ht="26.25" customHeight="1">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -3199,7 +3265,7 @@
       <c r="U20" s="22"/>
       <c r="V20" s="23"/>
     </row>
-    <row r="21" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -3255,7 +3321,7 @@
       <c r="U21" s="24"/>
       <c r="V21" s="25"/>
     </row>
-    <row r="22" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -3311,7 +3377,7 @@
       <c r="U22" s="24"/>
       <c r="V22" s="25"/>
     </row>
-    <row r="23" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -3361,7 +3427,7 @@
       <c r="U23" s="24"/>
       <c r="V23" s="25"/>
     </row>
-    <row r="24" spans="1:22" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:22" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -3417,7 +3483,7 @@
       <c r="U24" s="24"/>
       <c r="V24" s="25"/>
     </row>
-    <row r="25" spans="1:22" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:22" s="4" customFormat="1" ht="16.5">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -3467,7 +3533,7 @@
       <c r="U25" s="24"/>
       <c r="V25" s="25"/>
     </row>
-    <row r="26" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" s="3" customFormat="1" ht="16.5">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -3523,7 +3589,7 @@
       <c r="U26" s="22"/>
       <c r="V26" s="23"/>
     </row>
-    <row r="27" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:22" s="3" customFormat="1" ht="16.5">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -3579,7 +3645,7 @@
       <c r="U27" s="22"/>
       <c r="V27" s="23"/>
     </row>
-    <row r="28" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:22" s="3" customFormat="1" ht="16.5">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -3635,7 +3701,7 @@
       <c r="U28" s="22"/>
       <c r="V28" s="23"/>
     </row>
-    <row r="29" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:22" s="3" customFormat="1" ht="16.5">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -3691,7 +3757,7 @@
       <c r="U29" s="22"/>
       <c r="V29" s="23"/>
     </row>
-    <row r="30" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:22" s="3" customFormat="1" ht="16.5">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -3747,7 +3813,7 @@
       <c r="U30" s="22"/>
       <c r="V30" s="23"/>
     </row>
-    <row r="31" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:22" s="3" customFormat="1" ht="16.5">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -3803,7 +3869,7 @@
       <c r="U31" s="22"/>
       <c r="V31" s="23"/>
     </row>
-    <row r="32" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:22" s="3" customFormat="1" ht="16.5">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -3859,7 +3925,7 @@
       <c r="U32" s="22"/>
       <c r="V32" s="23"/>
     </row>
-    <row r="33" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:22" s="3" customFormat="1" ht="16.5">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -3915,7 +3981,7 @@
       <c r="U33" s="22"/>
       <c r="V33" s="23"/>
     </row>
-    <row r="34" spans="1:22" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:22" s="3" customFormat="1" ht="33">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -3971,7 +4037,7 @@
       <c r="U34" s="22"/>
       <c r="V34" s="23"/>
     </row>
-    <row r="35" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:22" s="3" customFormat="1" ht="16.5">
       <c r="A35" s="9">
         <v>34</v>
       </c>
@@ -4027,7 +4093,7 @@
       <c r="U35" s="22"/>
       <c r="V35" s="23"/>
     </row>
-    <row r="36" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:22" s="3" customFormat="1" ht="16.5">
       <c r="A36" s="9">
         <v>35</v>
       </c>
@@ -4083,7 +4149,7 @@
       <c r="U36" s="22"/>
       <c r="V36" s="23"/>
     </row>
-    <row r="37" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:22" ht="16.5">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -4106,7 +4172,7 @@
       <c r="T37" s="16"/>
       <c r="U37" s="15"/>
     </row>
-    <row r="38" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:22" ht="16.5">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -4129,7 +4195,7 @@
       <c r="T38" s="16"/>
       <c r="U38" s="15"/>
     </row>
-    <row r="39" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:22" ht="16.5">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -4152,7 +4218,7 @@
       <c r="T39" s="16"/>
       <c r="U39" s="15"/>
     </row>
-    <row r="40" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:22" ht="16.5">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -4175,7 +4241,7 @@
       <c r="T40" s="16"/>
       <c r="U40" s="15"/>
     </row>
-    <row r="41" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:22" ht="16.5">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
@@ -4198,7 +4264,7 @@
       <c r="T41" s="16"/>
       <c r="U41" s="15"/>
     </row>
-    <row r="42" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:22" ht="16.5">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
@@ -4221,7 +4287,7 @@
       <c r="T42" s="16"/>
       <c r="U42" s="15"/>
     </row>
-    <row r="43" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:22" ht="16.5">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
@@ -4244,7 +4310,7 @@
       <c r="T43" s="16"/>
       <c r="U43" s="15"/>
     </row>
-    <row r="44" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:22" ht="16.5">
       <c r="A44" s="16"/>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
@@ -4267,7 +4333,7 @@
       <c r="T44" s="16"/>
       <c r="U44" s="15"/>
     </row>
-    <row r="45" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:22" ht="16.5">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
@@ -4290,7 +4356,7 @@
       <c r="T45" s="16"/>
       <c r="U45" s="15"/>
     </row>
-    <row r="46" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:22" ht="16.5">
       <c r="A46" s="16"/>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
@@ -4313,7 +4379,7 @@
       <c r="T46" s="16"/>
       <c r="U46" s="15"/>
     </row>
-    <row r="47" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:22" ht="16.5">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -4336,7 +4402,7 @@
       <c r="T47" s="16"/>
       <c r="U47" s="15"/>
     </row>
-    <row r="48" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:22" ht="16.5">
       <c r="A48" s="16"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -4359,7 +4425,7 @@
       <c r="T48" s="16"/>
       <c r="U48" s="15"/>
     </row>
-    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" ht="16.5">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -4382,7 +4448,7 @@
       <c r="T49" s="16"/>
       <c r="U49" s="15"/>
     </row>
-    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" ht="16.5">
       <c r="A50" s="16"/>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
@@ -4405,7 +4471,7 @@
       <c r="T50" s="16"/>
       <c r="U50" s="15"/>
     </row>
-    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" ht="16.5">
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
@@ -4428,7 +4494,7 @@
       <c r="T51" s="16"/>
       <c r="U51" s="15"/>
     </row>
-    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" ht="16.5">
       <c r="A52" s="16"/>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
@@ -4451,7 +4517,7 @@
       <c r="T52" s="16"/>
       <c r="U52" s="15"/>
     </row>
-    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" ht="16.5">
       <c r="A53" s="16"/>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
@@ -4474,7 +4540,7 @@
       <c r="T53" s="16"/>
       <c r="U53" s="15"/>
     </row>
-    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" ht="16.5">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
@@ -4497,7 +4563,7 @@
       <c r="T54" s="16"/>
       <c r="U54" s="15"/>
     </row>
-    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" ht="16.5">
       <c r="A55" s="16"/>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
@@ -4520,7 +4586,7 @@
       <c r="T55" s="16"/>
       <c r="U55" s="15"/>
     </row>
-    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" ht="16.5">
       <c r="A56" s="16"/>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
@@ -4543,7 +4609,7 @@
       <c r="T56" s="16"/>
       <c r="U56" s="15"/>
     </row>
-    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" ht="16.5">
       <c r="A57" s="16"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
@@ -4566,7 +4632,7 @@
       <c r="T57" s="16"/>
       <c r="U57" s="15"/>
     </row>
-    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21" ht="16.5">
       <c r="A58" s="16"/>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
@@ -4589,7 +4655,7 @@
       <c r="T58" s="16"/>
       <c r="U58" s="15"/>
     </row>
-    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21" ht="16.5">
       <c r="A59" s="16"/>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
@@ -4612,7 +4678,7 @@
       <c r="T59" s="16"/>
       <c r="U59" s="15"/>
     </row>
-    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21" ht="16.5">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
@@ -4635,7 +4701,7 @@
       <c r="T60" s="16"/>
       <c r="U60" s="15"/>
     </row>
-    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21" ht="16.5">
       <c r="A61" s="16"/>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
@@ -4658,7 +4724,7 @@
       <c r="T61" s="16"/>
       <c r="U61" s="15"/>
     </row>
-    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" ht="16.5">
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -4681,7 +4747,7 @@
       <c r="T62" s="16"/>
       <c r="U62" s="15"/>
     </row>
-    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" ht="16.5">
       <c r="A63" s="16"/>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
@@ -4704,7 +4770,7 @@
       <c r="T63" s="16"/>
       <c r="U63" s="15"/>
     </row>
-    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:21" ht="16.5">
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
@@ -4727,7 +4793,7 @@
       <c r="T64" s="16"/>
       <c r="U64" s="15"/>
     </row>
-    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" ht="16.5">
       <c r="A65" s="16"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
@@ -4750,7 +4816,7 @@
       <c r="T65" s="16"/>
       <c r="U65" s="15"/>
     </row>
-    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" ht="16.5">
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
@@ -4773,7 +4839,7 @@
       <c r="T66" s="16"/>
       <c r="U66" s="15"/>
     </row>
-    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" ht="16.5">
       <c r="A67" s="16"/>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
@@ -4796,7 +4862,7 @@
       <c r="T67" s="16"/>
       <c r="U67" s="15"/>
     </row>
-    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" ht="16.5">
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
@@ -4819,7 +4885,7 @@
       <c r="T68" s="16"/>
       <c r="U68" s="15"/>
     </row>
-    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" ht="16.5">
       <c r="A69" s="16"/>
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
@@ -4842,7 +4908,7 @@
       <c r="T69" s="16"/>
       <c r="U69" s="15"/>
     </row>
-    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" ht="16.5">
       <c r="A70" s="16"/>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
@@ -4865,7 +4931,7 @@
       <c r="T70" s="16"/>
       <c r="U70" s="15"/>
     </row>
-    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" ht="16.5">
       <c r="A71" s="16"/>
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
@@ -4888,7 +4954,7 @@
       <c r="T71" s="16"/>
       <c r="U71" s="15"/>
     </row>
-    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" ht="16.5">
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
@@ -4911,7 +4977,7 @@
       <c r="T72" s="16"/>
       <c r="U72" s="15"/>
     </row>
-    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" ht="16.5">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
@@ -4934,7 +5000,7 @@
       <c r="T73" s="16"/>
       <c r="U73" s="15"/>
     </row>
-    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" ht="16.5">
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
@@ -4957,7 +5023,7 @@
       <c r="T74" s="16"/>
       <c r="U74" s="15"/>
     </row>
-    <row r="75" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21" ht="16.5">
       <c r="A75" s="16"/>
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
@@ -4980,7 +5046,7 @@
       <c r="T75" s="16"/>
       <c r="U75" s="15"/>
     </row>
-    <row r="76" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21" ht="16.5">
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
@@ -5003,7 +5069,7 @@
       <c r="T76" s="16"/>
       <c r="U76" s="15"/>
     </row>
-    <row r="77" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21" ht="16.5">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
@@ -5026,7 +5092,7 @@
       <c r="T77" s="16"/>
       <c r="U77" s="15"/>
     </row>
-    <row r="78" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21" ht="16.5">
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
@@ -5049,7 +5115,7 @@
       <c r="T78" s="16"/>
       <c r="U78" s="15"/>
     </row>
-    <row r="79" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21" ht="16.5">
       <c r="A79" s="16"/>
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
@@ -5072,7 +5138,7 @@
       <c r="T79" s="16"/>
       <c r="U79" s="15"/>
     </row>
-    <row r="80" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21" ht="16.5">
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
@@ -5095,7 +5161,7 @@
       <c r="T80" s="16"/>
       <c r="U80" s="15"/>
     </row>
-    <row r="81" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21" ht="16.5">
       <c r="A81" s="16"/>
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
@@ -5118,7 +5184,7 @@
       <c r="T81" s="16"/>
       <c r="U81" s="15"/>
     </row>
-    <row r="82" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21" ht="16.5">
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
@@ -5141,7 +5207,7 @@
       <c r="T82" s="16"/>
       <c r="U82" s="15"/>
     </row>
-    <row r="83" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21" ht="16.5">
       <c r="A83" s="16"/>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
@@ -5164,7 +5230,7 @@
       <c r="T83" s="16"/>
       <c r="U83" s="15"/>
     </row>
-    <row r="84" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:21" ht="16.5">
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
@@ -5187,7 +5253,7 @@
       <c r="T84" s="16"/>
       <c r="U84" s="15"/>
     </row>
-    <row r="85" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:21" ht="16.5">
       <c r="A85" s="16"/>
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
@@ -5210,7 +5276,7 @@
       <c r="T85" s="16"/>
       <c r="U85" s="15"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:21">
       <c r="A86" s="16"/>
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
@@ -5233,7 +5299,7 @@
       <c r="T86" s="16"/>
       <c r="U86" s="15"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:21">
       <c r="A87" s="16"/>
       <c r="B87" s="16"/>
       <c r="C87" s="16"/>
@@ -5256,7 +5322,7 @@
       <c r="T87" s="16"/>
       <c r="U87" s="15"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:21">
       <c r="A88" s="16"/>
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
@@ -5279,7 +5345,7 @@
       <c r="T88" s="16"/>
       <c r="U88" s="15"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:21">
       <c r="A89" s="16"/>
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
@@ -5302,7 +5368,7 @@
       <c r="T89" s="16"/>
       <c r="U89" s="15"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:21">
       <c r="A90" s="16"/>
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
@@ -5325,7 +5391,7 @@
       <c r="T90" s="16"/>
       <c r="U90" s="15"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:21">
       <c r="A91" s="16"/>
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
@@ -5348,7 +5414,7 @@
       <c r="T91" s="16"/>
       <c r="U91" s="15"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:21">
       <c r="A92" s="16"/>
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
@@ -5371,7 +5437,7 @@
       <c r="T92" s="16"/>
       <c r="U92" s="15"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:21">
       <c r="A93" s="16"/>
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
@@ -5394,7 +5460,7 @@
       <c r="T93" s="16"/>
       <c r="U93" s="15"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:21">
       <c r="A94" s="16"/>
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
@@ -5417,7 +5483,7 @@
       <c r="T94" s="16"/>
       <c r="U94" s="15"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:21">
       <c r="A95" s="16"/>
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
@@ -5440,7 +5506,7 @@
       <c r="T95" s="16"/>
       <c r="U95" s="15"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:21">
       <c r="A96" s="16"/>
       <c r="B96" s="16"/>
       <c r="C96" s="16"/>
@@ -5463,7 +5529,7 @@
       <c r="T96" s="16"/>
       <c r="U96" s="15"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:21">
       <c r="A97" s="16"/>
       <c r="B97" s="16"/>
       <c r="C97" s="16"/>
@@ -5486,7 +5552,7 @@
       <c r="T97" s="16"/>
       <c r="U97" s="15"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:21">
       <c r="A98" s="16"/>
       <c r="B98" s="16"/>
       <c r="C98" s="16"/>
@@ -5509,7 +5575,7 @@
       <c r="T98" s="16"/>
       <c r="U98" s="15"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:21">
       <c r="A99" s="16"/>
       <c r="B99" s="16"/>
       <c r="C99" s="16"/>
@@ -5532,7 +5598,7 @@
       <c r="T99" s="16"/>
       <c r="U99" s="15"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:21">
       <c r="A100" s="16"/>
       <c r="B100" s="16"/>
       <c r="C100" s="16"/>
@@ -5555,7 +5621,7 @@
       <c r="T100" s="16"/>
       <c r="U100" s="15"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:21">
       <c r="A101" s="16"/>
       <c r="B101" s="16"/>
       <c r="C101" s="16"/>
@@ -5578,7 +5644,7 @@
       <c r="T101" s="16"/>
       <c r="U101" s="15"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:21">
       <c r="A102" s="16"/>
       <c r="B102" s="16"/>
       <c r="C102" s="16"/>
@@ -5601,7 +5667,7 @@
       <c r="T102" s="16"/>
       <c r="U102" s="15"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:21">
       <c r="A103" s="16"/>
       <c r="B103" s="16"/>
       <c r="C103" s="16"/>
@@ -5624,7 +5690,7 @@
       <c r="T103" s="16"/>
       <c r="U103" s="15"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:21">
       <c r="A104" s="16"/>
       <c r="B104" s="16"/>
       <c r="C104" s="16"/>
@@ -5647,7 +5713,7 @@
       <c r="T104" s="16"/>
       <c r="U104" s="15"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:21">
       <c r="A105" s="16"/>
       <c r="B105" s="16"/>
       <c r="C105" s="16"/>
@@ -5670,7 +5736,7 @@
       <c r="T105" s="16"/>
       <c r="U105" s="15"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:21">
       <c r="A106" s="16"/>
       <c r="B106" s="16"/>
       <c r="C106" s="16"/>
@@ -5693,7 +5759,7 @@
       <c r="T106" s="16"/>
       <c r="U106" s="15"/>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:21">
       <c r="A107" s="16"/>
       <c r="B107" s="16"/>
       <c r="C107" s="16"/>
@@ -5716,7 +5782,7 @@
       <c r="T107" s="16"/>
       <c r="U107" s="15"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:21">
       <c r="A108" s="16"/>
       <c r="B108" s="16"/>
       <c r="C108" s="16"/>
@@ -5739,7 +5805,7 @@
       <c r="T108" s="16"/>
       <c r="U108" s="15"/>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:21">
       <c r="A109" s="16"/>
       <c r="B109" s="16"/>
       <c r="C109" s="16"/>
@@ -5762,7 +5828,7 @@
       <c r="T109" s="16"/>
       <c r="U109" s="15"/>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:21">
       <c r="A110" s="16"/>
       <c r="B110" s="16"/>
       <c r="C110" s="16"/>
@@ -5785,7 +5851,7 @@
       <c r="T110" s="16"/>
       <c r="U110" s="15"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:21">
       <c r="A111" s="16"/>
       <c r="B111" s="16"/>
       <c r="C111" s="16"/>
@@ -5808,7 +5874,7 @@
       <c r="T111" s="16"/>
       <c r="U111" s="15"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:21">
       <c r="A112" s="16"/>
       <c r="B112" s="16"/>
       <c r="C112" s="16"/>
@@ -5831,7 +5897,7 @@
       <c r="T112" s="16"/>
       <c r="U112" s="15"/>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:21">
       <c r="A113" s="16"/>
       <c r="B113" s="16"/>
       <c r="C113" s="16"/>
@@ -5854,7 +5920,7 @@
       <c r="T113" s="16"/>
       <c r="U113" s="15"/>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:21">
       <c r="A114" s="16"/>
       <c r="B114" s="16"/>
       <c r="C114" s="16"/>
@@ -5877,7 +5943,7 @@
       <c r="T114" s="16"/>
       <c r="U114" s="15"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:21">
       <c r="A115" s="16"/>
       <c r="B115" s="16"/>
       <c r="C115" s="16"/>
@@ -5900,7 +5966,7 @@
       <c r="T115" s="16"/>
       <c r="U115" s="15"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:21">
       <c r="A116" s="16"/>
       <c r="B116" s="16"/>
       <c r="C116" s="16"/>
@@ -5923,7 +5989,7 @@
       <c r="T116" s="16"/>
       <c r="U116" s="15"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:21">
       <c r="A117" s="16"/>
       <c r="B117" s="16"/>
       <c r="C117" s="16"/>
@@ -5946,7 +6012,7 @@
       <c r="T117" s="16"/>
       <c r="U117" s="15"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:21">
       <c r="A118" s="16"/>
       <c r="B118" s="16"/>
       <c r="C118" s="16"/>
@@ -5969,7 +6035,7 @@
       <c r="T118" s="16"/>
       <c r="U118" s="15"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:21">
       <c r="A119" s="16"/>
       <c r="B119" s="16"/>
       <c r="C119" s="16"/>
@@ -5992,7 +6058,7 @@
       <c r="T119" s="16"/>
       <c r="U119" s="15"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:21">
       <c r="A120" s="16"/>
       <c r="B120" s="16"/>
       <c r="C120" s="16"/>
@@ -6015,7 +6081,7 @@
       <c r="T120" s="16"/>
       <c r="U120" s="15"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:21">
       <c r="A121" s="16"/>
       <c r="B121" s="16"/>
       <c r="C121" s="16"/>
@@ -6038,7 +6104,7 @@
       <c r="T121" s="16"/>
       <c r="U121" s="15"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:21">
       <c r="A122" s="16"/>
       <c r="B122" s="16"/>
       <c r="C122" s="16"/>
@@ -6061,7 +6127,7 @@
       <c r="T122" s="16"/>
       <c r="U122" s="15"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:21">
       <c r="A123" s="16"/>
       <c r="B123" s="16"/>
       <c r="C123" s="16"/>
@@ -6084,7 +6150,7 @@
       <c r="T123" s="16"/>
       <c r="U123" s="15"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:21">
       <c r="A124" s="16"/>
       <c r="B124" s="16"/>
       <c r="C124" s="16"/>
@@ -6107,7 +6173,7 @@
       <c r="T124" s="16"/>
       <c r="U124" s="15"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:21">
       <c r="A125" s="16"/>
       <c r="B125" s="16"/>
       <c r="C125" s="16"/>
@@ -6130,7 +6196,7 @@
       <c r="T125" s="16"/>
       <c r="U125" s="15"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:21">
       <c r="A126" s="16"/>
       <c r="B126" s="16"/>
       <c r="C126" s="16"/>
@@ -6153,7 +6219,7 @@
       <c r="T126" s="16"/>
       <c r="U126" s="15"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:21">
       <c r="A127" s="16"/>
       <c r="B127" s="16"/>
       <c r="C127" s="16"/>
@@ -6176,7 +6242,7 @@
       <c r="T127" s="16"/>
       <c r="U127" s="15"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:21">
       <c r="A128" s="16"/>
       <c r="B128" s="16"/>
       <c r="C128" s="16"/>
@@ -6199,7 +6265,7 @@
       <c r="T128" s="16"/>
       <c r="U128" s="15"/>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:21">
       <c r="A129" s="16"/>
       <c r="B129" s="16"/>
       <c r="C129" s="16"/>
@@ -6222,7 +6288,7 @@
       <c r="T129" s="16"/>
       <c r="U129" s="15"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:21">
       <c r="A130" s="16"/>
       <c r="B130" s="16"/>
       <c r="C130" s="16"/>
@@ -6245,7 +6311,7 @@
       <c r="T130" s="16"/>
       <c r="U130" s="15"/>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:21">
       <c r="A131" s="16"/>
       <c r="B131" s="16"/>
       <c r="C131" s="16"/>
@@ -6268,7 +6334,7 @@
       <c r="T131" s="16"/>
       <c r="U131" s="15"/>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:21">
       <c r="A132" s="16"/>
       <c r="B132" s="16"/>
       <c r="C132" s="16"/>
@@ -6291,7 +6357,7 @@
       <c r="T132" s="16"/>
       <c r="U132" s="15"/>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:21">
       <c r="A133" s="16"/>
       <c r="B133" s="16"/>
       <c r="C133" s="16"/>
@@ -6314,7 +6380,7 @@
       <c r="T133" s="16"/>
       <c r="U133" s="15"/>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:21">
       <c r="A134" s="16"/>
       <c r="B134" s="16"/>
       <c r="C134" s="16"/>
@@ -6337,7 +6403,7 @@
       <c r="T134" s="16"/>
       <c r="U134" s="15"/>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:21">
       <c r="A135" s="16"/>
       <c r="B135" s="16"/>
       <c r="C135" s="16"/>
@@ -6360,7 +6426,7 @@
       <c r="T135" s="16"/>
       <c r="U135" s="15"/>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:21">
       <c r="A136" s="16"/>
       <c r="B136" s="16"/>
       <c r="C136" s="16"/>
@@ -6383,7 +6449,7 @@
       <c r="T136" s="16"/>
       <c r="U136" s="15"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:21">
       <c r="A137" s="16"/>
       <c r="B137" s="16"/>
       <c r="C137" s="16"/>
@@ -6406,7 +6472,7 @@
       <c r="T137" s="16"/>
       <c r="U137" s="15"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:21">
       <c r="A138" s="16"/>
       <c r="B138" s="16"/>
       <c r="C138" s="16"/>
@@ -6429,7 +6495,7 @@
       <c r="T138" s="16"/>
       <c r="U138" s="15"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:21">
       <c r="A139" s="16"/>
       <c r="B139" s="16"/>
       <c r="C139" s="16"/>
@@ -6452,7 +6518,7 @@
       <c r="T139" s="16"/>
       <c r="U139" s="15"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:21">
       <c r="A140" s="16"/>
       <c r="B140" s="16"/>
       <c r="C140" s="16"/>
@@ -6475,7 +6541,7 @@
       <c r="T140" s="16"/>
       <c r="U140" s="15"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:21">
       <c r="A141" s="16"/>
       <c r="B141" s="16"/>
       <c r="C141" s="16"/>
@@ -6498,7 +6564,7 @@
       <c r="T141" s="16"/>
       <c r="U141" s="15"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:21">
       <c r="A142" s="16"/>
       <c r="B142" s="16"/>
       <c r="C142" s="16"/>
@@ -6521,7 +6587,7 @@
       <c r="T142" s="16"/>
       <c r="U142" s="15"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:21">
       <c r="A143" s="16"/>
       <c r="B143" s="16"/>
       <c r="C143" s="16"/>
@@ -6544,7 +6610,7 @@
       <c r="T143" s="16"/>
       <c r="U143" s="15"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:21">
       <c r="A144" s="16"/>
       <c r="B144" s="16"/>
       <c r="C144" s="16"/>
@@ -6567,7 +6633,7 @@
       <c r="T144" s="16"/>
       <c r="U144" s="15"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:21">
       <c r="A145" s="16"/>
       <c r="B145" s="16"/>
       <c r="C145" s="16"/>
@@ -6590,7 +6656,7 @@
       <c r="T145" s="16"/>
       <c r="U145" s="15"/>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:21">
       <c r="A146" s="16"/>
       <c r="B146" s="16"/>
       <c r="C146" s="16"/>
@@ -6613,7 +6679,7 @@
       <c r="T146" s="16"/>
       <c r="U146" s="15"/>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:21">
       <c r="A147" s="16"/>
       <c r="B147" s="16"/>
       <c r="C147" s="16"/>
@@ -6636,7 +6702,7 @@
       <c r="T147" s="16"/>
       <c r="U147" s="15"/>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:21">
       <c r="A148" s="16"/>
       <c r="B148" s="16"/>
       <c r="C148" s="16"/>
@@ -6659,7 +6725,7 @@
       <c r="T148" s="16"/>
       <c r="U148" s="15"/>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:21">
       <c r="A149" s="16"/>
       <c r="B149" s="16"/>
       <c r="C149" s="16"/>
@@ -6682,7 +6748,7 @@
       <c r="T149" s="16"/>
       <c r="U149" s="15"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:21">
       <c r="A150" s="16"/>
       <c r="B150" s="16"/>
       <c r="C150" s="16"/>
@@ -6705,7 +6771,7 @@
       <c r="T150" s="16"/>
       <c r="U150" s="15"/>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:21">
       <c r="A151" s="16"/>
       <c r="B151" s="16"/>
       <c r="C151" s="16"/>
@@ -6728,7 +6794,7 @@
       <c r="T151" s="16"/>
       <c r="U151" s="15"/>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:21">
       <c r="A152" s="16"/>
       <c r="B152" s="16"/>
       <c r="C152" s="16"/>
@@ -6748,7 +6814,7 @@
       <c r="Q152" s="15"/>
       <c r="U152" s="15"/>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:21">
       <c r="A153" s="16"/>
       <c r="B153" s="16"/>
       <c r="C153" s="16"/>
@@ -6768,7 +6834,7 @@
       <c r="Q153" s="15"/>
       <c r="U153" s="15"/>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:21">
       <c r="A154" s="16"/>
       <c r="B154" s="16"/>
       <c r="C154" s="16"/>
@@ -6788,7 +6854,7 @@
       <c r="Q154" s="15"/>
       <c r="U154" s="15"/>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:21">
       <c r="A155" s="16"/>
       <c r="B155" s="16"/>
       <c r="C155" s="16"/>
@@ -6808,7 +6874,7 @@
       <c r="Q155" s="15"/>
       <c r="U155" s="15"/>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:21">
       <c r="A156" s="16"/>
       <c r="B156" s="16"/>
       <c r="C156" s="16"/>
@@ -6828,7 +6894,7 @@
       <c r="Q156" s="15"/>
       <c r="U156" s="15"/>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:21">
       <c r="A157" s="16"/>
       <c r="B157" s="16"/>
       <c r="C157" s="16"/>
@@ -6848,7 +6914,7 @@
       <c r="Q157" s="15"/>
       <c r="U157" s="15"/>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:21">
       <c r="A158" s="16"/>
       <c r="B158" s="16"/>
       <c r="C158" s="16"/>
@@ -6868,7 +6934,7 @@
       <c r="Q158" s="15"/>
       <c r="U158" s="15"/>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:21">
       <c r="A159" s="16"/>
       <c r="B159" s="16"/>
       <c r="C159" s="16"/>
@@ -6888,7 +6954,7 @@
       <c r="Q159" s="15"/>
       <c r="U159" s="15"/>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:21">
       <c r="A160" s="16"/>
       <c r="B160" s="16"/>
       <c r="C160" s="16"/>
@@ -6908,7 +6974,7 @@
       <c r="Q160" s="15"/>
       <c r="U160" s="15"/>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:21">
       <c r="A161" s="16"/>
       <c r="B161" s="16"/>
       <c r="C161" s="16"/>
@@ -6928,7 +6994,7 @@
       <c r="Q161" s="15"/>
       <c r="U161" s="15"/>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:21">
       <c r="A162" s="16"/>
       <c r="B162" s="16"/>
       <c r="C162" s="16"/>
@@ -6948,7 +7014,7 @@
       <c r="Q162" s="15"/>
       <c r="U162" s="15"/>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:21">
       <c r="A163" s="16"/>
       <c r="B163" s="16"/>
       <c r="C163" s="16"/>
@@ -6968,7 +7034,7 @@
       <c r="Q163" s="15"/>
       <c r="U163" s="15"/>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:21">
       <c r="A164" s="16"/>
       <c r="B164" s="16"/>
       <c r="C164" s="16"/>
@@ -6988,7 +7054,7 @@
       <c r="Q164" s="15"/>
       <c r="U164" s="15"/>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:21">
       <c r="A165" s="16"/>
       <c r="B165" s="16"/>
       <c r="C165" s="16"/>
@@ -7008,7 +7074,7 @@
       <c r="Q165" s="15"/>
       <c r="U165" s="15"/>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:21">
       <c r="A166" s="16"/>
       <c r="B166" s="16"/>
       <c r="C166" s="16"/>
@@ -7028,7 +7094,7 @@
       <c r="Q166" s="15"/>
       <c r="U166" s="15"/>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:21">
       <c r="A167" s="16"/>
       <c r="B167" s="16"/>
       <c r="C167" s="16"/>
@@ -7048,7 +7114,7 @@
       <c r="Q167" s="15"/>
       <c r="U167" s="15"/>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:21">
       <c r="A168" s="16"/>
       <c r="B168" s="16"/>
       <c r="C168" s="16"/>
@@ -7068,7 +7134,7 @@
       <c r="Q168" s="15"/>
       <c r="U168" s="15"/>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:21">
       <c r="A169" s="16"/>
       <c r="B169" s="16"/>
       <c r="C169" s="16"/>
@@ -7088,7 +7154,7 @@
       <c r="Q169" s="15"/>
       <c r="U169" s="15"/>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:21">
       <c r="A170" s="16"/>
       <c r="B170" s="16"/>
       <c r="C170" s="16"/>
@@ -7108,7 +7174,7 @@
       <c r="Q170" s="15"/>
       <c r="U170" s="15"/>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:21">
       <c r="A171" s="16"/>
       <c r="B171" s="16"/>
       <c r="C171" s="16"/>
@@ -7128,7 +7194,7 @@
       <c r="Q171" s="15"/>
       <c r="U171" s="15"/>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:21">
       <c r="A172" s="16"/>
       <c r="B172" s="16"/>
       <c r="C172" s="16"/>
@@ -7148,7 +7214,7 @@
       <c r="Q172" s="15"/>
       <c r="U172" s="15"/>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:21">
       <c r="A173" s="16"/>
       <c r="B173" s="16"/>
       <c r="C173" s="16"/>
@@ -7168,7 +7234,7 @@
       <c r="Q173" s="15"/>
       <c r="U173" s="15"/>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:21">
       <c r="A174" s="16"/>
       <c r="B174" s="16"/>
       <c r="C174" s="16"/>
@@ -7188,7 +7254,7 @@
       <c r="Q174" s="15"/>
       <c r="U174" s="15"/>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:21">
       <c r="A175" s="16"/>
       <c r="B175" s="16"/>
       <c r="C175" s="16"/>
@@ -7208,7 +7274,7 @@
       <c r="Q175" s="15"/>
       <c r="U175" s="15"/>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:21">
       <c r="A176" s="16"/>
       <c r="B176" s="16"/>
       <c r="C176" s="16"/>
@@ -7228,7 +7294,7 @@
       <c r="Q176" s="15"/>
       <c r="U176" s="15"/>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:21">
       <c r="A177" s="16"/>
       <c r="B177" s="16"/>
       <c r="C177" s="16"/>
@@ -7248,7 +7314,7 @@
       <c r="Q177" s="15"/>
       <c r="U177" s="15"/>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:21">
       <c r="A178" s="16"/>
       <c r="B178" s="16"/>
       <c r="C178" s="16"/>
@@ -7268,7 +7334,7 @@
       <c r="Q178" s="15"/>
       <c r="U178" s="15"/>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:21">
       <c r="A179" s="16"/>
       <c r="B179" s="16"/>
       <c r="C179" s="16"/>
@@ -7288,7 +7354,7 @@
       <c r="Q179" s="15"/>
       <c r="U179" s="15"/>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:21">
       <c r="A180" s="16"/>
       <c r="B180" s="16"/>
       <c r="C180" s="16"/>
@@ -7308,38 +7374,38 @@
       <c r="Q180" s="15"/>
       <c r="U180" s="15"/>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:21">
       <c r="A181" s="16"/>
       <c r="O181" s="16"/>
       <c r="P181" s="17"/>
       <c r="Q181" s="15"/>
       <c r="U181" s="15"/>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:21">
       <c r="A182" s="16"/>
       <c r="O182" s="16"/>
       <c r="P182" s="17"/>
       <c r="Q182" s="15"/>
       <c r="U182" s="15"/>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:21">
       <c r="A183" s="16"/>
       <c r="P183" s="17"/>
       <c r="Q183" s="15"/>
       <c r="U183" s="15"/>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:21">
       <c r="A184" s="16"/>
       <c r="P184" s="17"/>
       <c r="Q184" s="15"/>
       <c r="U184" s="15"/>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:21">
       <c r="A185" s="16"/>
       <c r="Q185" s="15"/>
       <c r="U185" s="15"/>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:21">
       <c r="A186" s="16"/>
       <c r="Q186" s="15"/>
       <c r="U186" s="15"/>
@@ -7353,14 +7419,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
@@ -7370,7 +7436,7 @@
     <col min="13" max="13" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="51" t="s">
         <v>95</v>
       </c>
@@ -7387,7 +7453,7 @@
       <c r="L1" s="51"/>
       <c r="M1" s="52"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="53"/>
       <c r="B2" s="53"/>
       <c r="C2" s="53"/>
@@ -7402,7 +7468,7 @@
       <c r="L2" s="53"/>
       <c r="M2" s="54"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="31" t="s">
         <v>96</v>
       </c>
@@ -7443,7 +7509,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="66" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="66">
       <c r="A4" s="34">
         <v>1</v>
       </c>
@@ -7482,7 +7548,7 @@
       </c>
       <c r="M4" s="35"/>
     </row>
-    <row r="5" spans="1:13" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="49.5">
       <c r="A5" s="34">
         <v>2</v>
       </c>
@@ -7539,14 +7605,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="26.25" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
@@ -7566,7 +7632,7 @@
     <col min="18" max="18" width="4.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="36" customHeight="1">
       <c r="A1" s="36" t="s">
         <v>225</v>
       </c>
@@ -7622,7 +7688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="30" customHeight="1">
       <c r="A2" s="40" t="s">
         <v>239</v>
       </c>
@@ -7676,7 +7742,7 @@
       </c>
       <c r="R2" s="49"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="30" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>259</v>
       </c>
@@ -7730,7 +7796,7 @@
       </c>
       <c r="R3" s="49"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="40" t="s">
         <v>259</v>
       </c>

--- a/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1.xlsx
+++ b/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26124"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 5.1.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanbingqiu/work/Mogo_Doc/VersionRecords/Version 5.1.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14595"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.1.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -1423,13 +1423,13 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1673,7 +1673,7 @@
     <cellStyle name="常规 7" xfId="8"/>
     <cellStyle name="常规 9" xfId="3"/>
     <cellStyle name="甘特图" xfId="2"/>
-    <cellStyle name="着色 4" xfId="9" builtinId="41"/>
+    <cellStyle name="个性色4" xfId="9" builtinId="41"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2045,37 +2045,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="5" customWidth="1"/>
-    <col min="2" max="3" width="12.375" style="5" customWidth="1"/>
+    <col min="2" max="3" width="12.33203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="43.5" style="6" customWidth="1"/>
     <col min="5" max="5" width="15" style="5" customWidth="1"/>
-    <col min="6" max="6" width="25.125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="18.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="15.875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" style="5" customWidth="1"/>
     <col min="14" max="14" width="14.5" style="5" customWidth="1"/>
     <col min="15" max="15" width="10" style="6" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="7.625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" style="6" customWidth="1"/>
     <col min="18" max="18" width="12" style="7" customWidth="1"/>
     <col min="19" max="19" width="17" style="7" customWidth="1"/>
-    <col min="20" max="20" width="14.125" style="7" customWidth="1"/>
-    <col min="21" max="21" width="22.375" style="6" customWidth="1"/>
-    <col min="22" max="22" width="8.875" customWidth="1"/>
+    <col min="20" max="20" width="14.1640625" style="7" customWidth="1"/>
+    <col min="21" max="21" width="22.33203125" style="6" customWidth="1"/>
+    <col min="22" max="22" width="8.83203125" customWidth="1"/>
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2196,7 +2196,7 @@
       <c r="U2" s="22"/>
       <c r="V2" s="23"/>
     </row>
-    <row r="3" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -2645,7 +2645,7 @@
       <c r="U10" s="24"/>
       <c r="V10" s="25"/>
     </row>
-    <row r="11" spans="1:22" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -2757,7 +2757,7 @@
       <c r="U12" s="24"/>
       <c r="V12" s="25"/>
     </row>
-    <row r="13" spans="1:22" s="3" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" s="3" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -2969,7 +2969,9 @@
       <c r="Q16" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="R16" s="16"/>
+      <c r="R16" s="16">
+        <v>5194</v>
+      </c>
       <c r="S16" s="16"/>
       <c r="T16" s="16"/>
       <c r="U16" s="22"/>
@@ -3025,7 +3027,9 @@
       <c r="Q17" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="R17" s="20"/>
+      <c r="R17" s="20">
+        <v>5200</v>
+      </c>
       <c r="S17" s="20"/>
       <c r="T17" s="20"/>
       <c r="U17" s="24"/>
@@ -3417,7 +3421,7 @@
       <c r="U24" s="24"/>
       <c r="V24" s="25"/>
     </row>
-    <row r="25" spans="1:22" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:22" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -3467,7 +3471,7 @@
       <c r="U25" s="24"/>
       <c r="V25" s="25"/>
     </row>
-    <row r="26" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -3523,7 +3527,7 @@
       <c r="U26" s="22"/>
       <c r="V26" s="23"/>
     </row>
-    <row r="27" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:22" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -3579,7 +3583,7 @@
       <c r="U27" s="22"/>
       <c r="V27" s="23"/>
     </row>
-    <row r="28" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:22" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -3635,7 +3639,7 @@
       <c r="U28" s="22"/>
       <c r="V28" s="23"/>
     </row>
-    <row r="29" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:22" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -3691,7 +3695,7 @@
       <c r="U29" s="22"/>
       <c r="V29" s="23"/>
     </row>
-    <row r="30" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:22" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -3747,7 +3751,7 @@
       <c r="U30" s="22"/>
       <c r="V30" s="23"/>
     </row>
-    <row r="31" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:22" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -3803,7 +3807,7 @@
       <c r="U31" s="22"/>
       <c r="V31" s="23"/>
     </row>
-    <row r="32" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:22" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -3859,7 +3863,7 @@
       <c r="U32" s="22"/>
       <c r="V32" s="23"/>
     </row>
-    <row r="33" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:22" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -3915,7 +3919,7 @@
       <c r="U33" s="22"/>
       <c r="V33" s="23"/>
     </row>
-    <row r="34" spans="1:22" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:22" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -3971,7 +3975,7 @@
       <c r="U34" s="22"/>
       <c r="V34" s="23"/>
     </row>
-    <row r="35" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:22" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
         <v>34</v>
       </c>
@@ -4027,7 +4031,7 @@
       <c r="U35" s="22"/>
       <c r="V35" s="23"/>
     </row>
-    <row r="36" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:22" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A36" s="9">
         <v>35</v>
       </c>
@@ -4083,7 +4087,7 @@
       <c r="U36" s="22"/>
       <c r="V36" s="23"/>
     </row>
-    <row r="37" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -4106,7 +4110,7 @@
       <c r="T37" s="16"/>
       <c r="U37" s="15"/>
     </row>
-    <row r="38" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -4129,7 +4133,7 @@
       <c r="T38" s="16"/>
       <c r="U38" s="15"/>
     </row>
-    <row r="39" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -4152,7 +4156,7 @@
       <c r="T39" s="16"/>
       <c r="U39" s="15"/>
     </row>
-    <row r="40" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -4175,7 +4179,7 @@
       <c r="T40" s="16"/>
       <c r="U40" s="15"/>
     </row>
-    <row r="41" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
@@ -4198,7 +4202,7 @@
       <c r="T41" s="16"/>
       <c r="U41" s="15"/>
     </row>
-    <row r="42" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
@@ -4221,7 +4225,7 @@
       <c r="T42" s="16"/>
       <c r="U42" s="15"/>
     </row>
-    <row r="43" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
@@ -4244,7 +4248,7 @@
       <c r="T43" s="16"/>
       <c r="U43" s="15"/>
     </row>
-    <row r="44" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A44" s="16"/>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
@@ -4267,7 +4271,7 @@
       <c r="T44" s="16"/>
       <c r="U44" s="15"/>
     </row>
-    <row r="45" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
@@ -4290,7 +4294,7 @@
       <c r="T45" s="16"/>
       <c r="U45" s="15"/>
     </row>
-    <row r="46" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A46" s="16"/>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
@@ -4313,7 +4317,7 @@
       <c r="T46" s="16"/>
       <c r="U46" s="15"/>
     </row>
-    <row r="47" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -4336,7 +4340,7 @@
       <c r="T47" s="16"/>
       <c r="U47" s="15"/>
     </row>
-    <row r="48" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A48" s="16"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -4359,7 +4363,7 @@
       <c r="T48" s="16"/>
       <c r="U48" s="15"/>
     </row>
-    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -4382,7 +4386,7 @@
       <c r="T49" s="16"/>
       <c r="U49" s="15"/>
     </row>
-    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A50" s="16"/>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
@@ -4405,7 +4409,7 @@
       <c r="T50" s="16"/>
       <c r="U50" s="15"/>
     </row>
-    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
@@ -4428,7 +4432,7 @@
       <c r="T51" s="16"/>
       <c r="U51" s="15"/>
     </row>
-    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A52" s="16"/>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
@@ -4451,7 +4455,7 @@
       <c r="T52" s="16"/>
       <c r="U52" s="15"/>
     </row>
-    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A53" s="16"/>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
@@ -4474,7 +4478,7 @@
       <c r="T53" s="16"/>
       <c r="U53" s="15"/>
     </row>
-    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
@@ -4497,7 +4501,7 @@
       <c r="T54" s="16"/>
       <c r="U54" s="15"/>
     </row>
-    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A55" s="16"/>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
@@ -4520,7 +4524,7 @@
       <c r="T55" s="16"/>
       <c r="U55" s="15"/>
     </row>
-    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A56" s="16"/>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
@@ -4543,7 +4547,7 @@
       <c r="T56" s="16"/>
       <c r="U56" s="15"/>
     </row>
-    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A57" s="16"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
@@ -4566,7 +4570,7 @@
       <c r="T57" s="16"/>
       <c r="U57" s="15"/>
     </row>
-    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A58" s="16"/>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
@@ -4589,7 +4593,7 @@
       <c r="T58" s="16"/>
       <c r="U58" s="15"/>
     </row>
-    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A59" s="16"/>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
@@ -4612,7 +4616,7 @@
       <c r="T59" s="16"/>
       <c r="U59" s="15"/>
     </row>
-    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
@@ -4635,7 +4639,7 @@
       <c r="T60" s="16"/>
       <c r="U60" s="15"/>
     </row>
-    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A61" s="16"/>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
@@ -4658,7 +4662,7 @@
       <c r="T61" s="16"/>
       <c r="U61" s="15"/>
     </row>
-    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -4681,7 +4685,7 @@
       <c r="T62" s="16"/>
       <c r="U62" s="15"/>
     </row>
-    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A63" s="16"/>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
@@ -4704,7 +4708,7 @@
       <c r="T63" s="16"/>
       <c r="U63" s="15"/>
     </row>
-    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
@@ -4727,7 +4731,7 @@
       <c r="T64" s="16"/>
       <c r="U64" s="15"/>
     </row>
-    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A65" s="16"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
@@ -4750,7 +4754,7 @@
       <c r="T65" s="16"/>
       <c r="U65" s="15"/>
     </row>
-    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
@@ -4773,7 +4777,7 @@
       <c r="T66" s="16"/>
       <c r="U66" s="15"/>
     </row>
-    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A67" s="16"/>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
@@ -4796,7 +4800,7 @@
       <c r="T67" s="16"/>
       <c r="U67" s="15"/>
     </row>
-    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
@@ -4819,7 +4823,7 @@
       <c r="T68" s="16"/>
       <c r="U68" s="15"/>
     </row>
-    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A69" s="16"/>
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
@@ -4842,7 +4846,7 @@
       <c r="T69" s="16"/>
       <c r="U69" s="15"/>
     </row>
-    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A70" s="16"/>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
@@ -4865,7 +4869,7 @@
       <c r="T70" s="16"/>
       <c r="U70" s="15"/>
     </row>
-    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A71" s="16"/>
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
@@ -4888,7 +4892,7 @@
       <c r="T71" s="16"/>
       <c r="U71" s="15"/>
     </row>
-    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
@@ -4911,7 +4915,7 @@
       <c r="T72" s="16"/>
       <c r="U72" s="15"/>
     </row>
-    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
@@ -4934,7 +4938,7 @@
       <c r="T73" s="16"/>
       <c r="U73" s="15"/>
     </row>
-    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
@@ -4957,7 +4961,7 @@
       <c r="T74" s="16"/>
       <c r="U74" s="15"/>
     </row>
-    <row r="75" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A75" s="16"/>
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
@@ -4980,7 +4984,7 @@
       <c r="T75" s="16"/>
       <c r="U75" s="15"/>
     </row>
-    <row r="76" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
@@ -5003,7 +5007,7 @@
       <c r="T76" s="16"/>
       <c r="U76" s="15"/>
     </row>
-    <row r="77" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
@@ -5026,7 +5030,7 @@
       <c r="T77" s="16"/>
       <c r="U77" s="15"/>
     </row>
-    <row r="78" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
@@ -5049,7 +5053,7 @@
       <c r="T78" s="16"/>
       <c r="U78" s="15"/>
     </row>
-    <row r="79" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A79" s="16"/>
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
@@ -5072,7 +5076,7 @@
       <c r="T79" s="16"/>
       <c r="U79" s="15"/>
     </row>
-    <row r="80" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
@@ -5095,7 +5099,7 @@
       <c r="T80" s="16"/>
       <c r="U80" s="15"/>
     </row>
-    <row r="81" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A81" s="16"/>
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
@@ -5118,7 +5122,7 @@
       <c r="T81" s="16"/>
       <c r="U81" s="15"/>
     </row>
-    <row r="82" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
@@ -5141,7 +5145,7 @@
       <c r="T82" s="16"/>
       <c r="U82" s="15"/>
     </row>
-    <row r="83" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A83" s="16"/>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
@@ -5164,7 +5168,7 @@
       <c r="T83" s="16"/>
       <c r="U83" s="15"/>
     </row>
-    <row r="84" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
@@ -5187,7 +5191,7 @@
       <c r="T84" s="16"/>
       <c r="U84" s="15"/>
     </row>
-    <row r="85" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A85" s="16"/>
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
@@ -7360,14 +7364,14 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.375" customWidth="1"/>
-    <col min="8" max="8" width="20.375" customWidth="1"/>
-    <col min="13" max="13" width="36.625" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
+    <col min="13" max="13" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
@@ -7402,7 +7406,7 @@
       <c r="L2" s="53"/>
       <c r="M2" s="54"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
         <v>96</v>
       </c>
@@ -7443,7 +7447,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="66" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="64" x14ac:dyDescent="0.15">
       <c r="A4" s="34">
         <v>1</v>
       </c>
@@ -7482,7 +7486,7 @@
       </c>
       <c r="M4" s="35"/>
     </row>
-    <row r="5" spans="1:13" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="48" x14ac:dyDescent="0.15">
       <c r="A5" s="34">
         <v>2</v>
       </c>
@@ -7546,24 +7550,24 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="54.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="54.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">

--- a/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1.xlsx
+++ b/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanbingqiu/work/Mogo_Doc/VersionRecords/Version 5.1.1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 5.1.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14595"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.1.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="定时器" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.1.1 新特性|Fix Bug'!$A$1:$U$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.1.1 新特性|Fix Bug'!$A$1:$U$36</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="124519" concurrentCalc="0"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="272">
   <si>
     <t>No</t>
   </si>
@@ -190,10 +190,6 @@
   </si>
   <si>
     <t>退房结算页面，需支付房租计算错误</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>fix bug</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -499,10 +495,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>新特性</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>renter、renterpc</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -922,10 +914,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Fix Bug</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>renterapp</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1155,6 +1143,10 @@
   <si>
     <t>可重复执行，如有错，需开发修复</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bugs</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1673,7 +1665,7 @@
     <cellStyle name="常规 7" xfId="8"/>
     <cellStyle name="常规 9" xfId="3"/>
     <cellStyle name="甘特图" xfId="2"/>
-    <cellStyle name="个性色4" xfId="9" builtinId="41"/>
+    <cellStyle name="着色 4" xfId="9" builtinId="41"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2043,39 +2035,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:V186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="5" customWidth="1"/>
-    <col min="2" max="3" width="12.33203125" style="5" customWidth="1"/>
+    <col min="2" max="3" width="12.375" style="5" customWidth="1"/>
     <col min="4" max="4" width="43.5" style="6" customWidth="1"/>
     <col min="5" max="5" width="15" style="5" customWidth="1"/>
-    <col min="6" max="6" width="25.1640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="18.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="25.125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="18.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="15.875" style="5" customWidth="1"/>
     <col min="14" max="14" width="14.5" style="5" customWidth="1"/>
     <col min="15" max="15" width="10" style="6" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="7.6640625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="7.625" style="6" customWidth="1"/>
     <col min="18" max="18" width="12" style="7" customWidth="1"/>
     <col min="19" max="19" width="17" style="7" customWidth="1"/>
-    <col min="20" max="20" width="14.1640625" style="7" customWidth="1"/>
-    <col min="21" max="21" width="22.33203125" style="6" customWidth="1"/>
-    <col min="22" max="22" width="8.83203125" customWidth="1"/>
+    <col min="20" max="20" width="14.125" style="7" customWidth="1"/>
+    <col min="21" max="21" width="22.375" style="6" customWidth="1"/>
+    <col min="22" max="22" width="8.875" customWidth="1"/>
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2140,55 +2133,55 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" s="3" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="E2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>113</v>
       </c>
       <c r="H2" s="13">
         <v>42695</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J2" s="13">
         <v>42695</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="O2" s="18" t="s">
         <v>116</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>118</v>
       </c>
       <c r="P2" s="13">
         <v>42695</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="R2" s="27"/>
       <c r="S2" s="27"/>
@@ -2196,55 +2189,55 @@
       <c r="U2" s="22"/>
       <c r="V2" s="23"/>
     </row>
-    <row r="3" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="E3" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>123</v>
-      </c>
       <c r="G3" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H3" s="13">
         <v>42696</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J3" s="13">
         <v>42696</v>
       </c>
       <c r="K3" s="21"/>
       <c r="L3" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="M3" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>126</v>
-      </c>
       <c r="O3" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P3" s="13">
         <v>42696</v>
       </c>
       <c r="Q3" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="R3" s="16">
         <v>5199</v>
@@ -2253,27 +2246,27 @@
       <c r="T3" s="16"/>
       <c r="U3" s="15"/>
     </row>
-    <row r="4" spans="1:22" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" s="3" customFormat="1" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="E4" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="F4" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>184</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>186</v>
       </c>
       <c r="H4" s="13">
         <v>42691</v>
@@ -2286,22 +2279,22 @@
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>24</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P4" s="13">
         <v>42691</v>
       </c>
       <c r="Q4" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="R4" s="16"/>
       <c r="S4" s="16"/>
@@ -2309,27 +2302,27 @@
       <c r="U4" s="22"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" spans="1:22" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" s="3" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="E5" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="E5" s="11" t="s">
+      <c r="G5" s="11" t="s">
         <v>184</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>186</v>
       </c>
       <c r="H5" s="13">
         <v>42691</v>
@@ -2348,16 +2341,16 @@
         <v>24</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O5" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P5" s="13">
         <v>42691</v>
       </c>
       <c r="Q5" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="R5" s="16"/>
       <c r="S5" s="16"/>
@@ -2365,24 +2358,24 @@
       <c r="U5" s="22"/>
       <c r="V5" s="23"/>
     </row>
-    <row r="6" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" s="4" customFormat="1" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>195</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>197</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>20</v>
@@ -2401,19 +2394,19 @@
         <v>33</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O6" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P6" s="13">
         <v>42691</v>
       </c>
       <c r="Q6" s="18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R6" s="20"/>
       <c r="S6" s="20"/>
@@ -2421,24 +2414,24 @@
       <c r="U6" s="24"/>
       <c r="V6" s="25"/>
     </row>
-    <row r="7" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" s="4" customFormat="1" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>20</v>
@@ -2460,16 +2453,16 @@
         <v>24</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O7" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P7" s="13">
         <v>42691</v>
       </c>
       <c r="Q7" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="R7" s="20"/>
       <c r="S7" s="20"/>
@@ -2477,24 +2470,24 @@
       <c r="U7" s="24"/>
       <c r="V7" s="25"/>
     </row>
-    <row r="8" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" s="4" customFormat="1" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>20</v>
@@ -2510,22 +2503,22 @@
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P8" s="13">
         <v>42691</v>
       </c>
       <c r="Q8" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="R8" s="20"/>
       <c r="S8" s="20"/>
@@ -2533,24 +2526,24 @@
       <c r="U8" s="24"/>
       <c r="V8" s="25"/>
     </row>
-    <row r="9" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" s="4" customFormat="1" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>20</v>
@@ -2566,22 +2559,22 @@
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M9" s="11" t="s">
         <v>24</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P9" s="13">
         <v>42691</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R9" s="20"/>
       <c r="S9" s="20"/>
@@ -2594,22 +2587,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>214</v>
+        <v>271</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H10" s="13">
         <v>42691</v>
@@ -2622,47 +2615,49 @@
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="18" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P10" s="13">
         <v>42691</v>
       </c>
       <c r="Q10" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="R10" s="20"/>
+        <v>192</v>
+      </c>
+      <c r="R10" s="20">
+        <v>5231</v>
+      </c>
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
       <c r="U10" s="24"/>
       <c r="V10" s="25"/>
     </row>
-    <row r="11" spans="1:22" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" s="4" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>20</v>
@@ -2678,22 +2673,22 @@
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="19" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="O11" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P11" s="13">
         <v>42691</v>
       </c>
       <c r="Q11" s="18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R11" s="20"/>
       <c r="S11" s="20"/>
@@ -2701,12 +2696,12 @@
       <c r="U11" s="24"/>
       <c r="V11" s="25"/>
     </row>
-    <row r="12" spans="1:22" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" s="4" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>25</v>
@@ -2715,10 +2710,10 @@
         <v>35</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>20</v>
@@ -2740,16 +2735,16 @@
         <v>24</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O12" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P12" s="13">
         <v>42691</v>
       </c>
       <c r="Q12" s="18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R12" s="20"/>
       <c r="S12" s="20"/>
@@ -2757,7 +2752,7 @@
       <c r="U12" s="24"/>
       <c r="V12" s="25"/>
     </row>
-    <row r="13" spans="1:22" s="3" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" s="3" customFormat="1" ht="83.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -2765,16 +2760,16 @@
         <v>31</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="F13" s="11" t="s">
         <v>128</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>130</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>30</v>
@@ -2783,29 +2778,29 @@
         <v>42694</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J13" s="29">
         <v>42695</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="N13" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="M13" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>134</v>
-      </c>
       <c r="O13" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P13" s="29">
         <v>42695</v>
       </c>
       <c r="Q13" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="R13" s="27"/>
       <c r="S13" s="27"/>
@@ -2813,24 +2808,24 @@
       <c r="U13" s="22"/>
       <c r="V13" s="23"/>
     </row>
-    <row r="14" spans="1:22" s="3" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" s="3" customFormat="1" ht="81.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>30</v>
@@ -2839,29 +2834,29 @@
         <v>42694</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J14" s="29">
         <v>42695</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="N14" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="M14" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="N14" s="11" t="s">
-        <v>140</v>
-      </c>
       <c r="O14" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P14" s="29">
         <v>42695</v>
       </c>
       <c r="Q14" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="R14" s="27"/>
       <c r="S14" s="27"/>
@@ -2869,7 +2864,7 @@
       <c r="U14" s="22"/>
       <c r="V14" s="23"/>
     </row>
-    <row r="15" spans="1:22" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" s="3" customFormat="1" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -2933,10 +2928,10 @@
         <v>40</v>
       </c>
       <c r="E16" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>42</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>20</v>
@@ -2952,22 +2947,22 @@
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M16" s="11" t="s">
         <v>38</v>
       </c>
       <c r="N16" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O16" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P16" s="13">
         <v>42695</v>
       </c>
       <c r="Q16" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R16" s="16">
         <v>5194</v>
@@ -2988,13 +2983,13 @@
         <v>39</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>42</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>20</v>
@@ -3010,22 +3005,22 @@
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M17" s="11" t="s">
+      <c r="N17" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="N17" s="18" t="s">
-        <v>48</v>
-      </c>
       <c r="O17" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P17" s="13">
         <v>42695</v>
       </c>
       <c r="Q17" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R17" s="20">
         <v>5200</v>
@@ -3035,7 +3030,7 @@
       <c r="U17" s="24"/>
       <c r="V17" s="25"/>
     </row>
-    <row r="18" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:22" s="4" customFormat="1" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -3046,13 +3041,13 @@
         <v>25</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>20</v>
@@ -3068,22 +3063,22 @@
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="N18" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="N18" s="18" t="s">
-        <v>48</v>
-      </c>
       <c r="O18" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P18" s="13">
         <v>42695</v>
       </c>
       <c r="Q18" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R18" s="20"/>
       <c r="S18" s="20"/>
@@ -3091,24 +3086,24 @@
       <c r="U18" s="24"/>
       <c r="V18" s="25"/>
     </row>
-    <row r="19" spans="1:22" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:22" s="3" customFormat="1" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="D19" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="E19" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="F19" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>74</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>19</v>
@@ -3124,22 +3119,22 @@
       </c>
       <c r="K19" s="11"/>
       <c r="L19" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M19" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="M19" s="11" t="s">
-        <v>76</v>
-      </c>
       <c r="N19" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="O19" s="18" t="s">
         <v>90</v>
-      </c>
-      <c r="O19" s="18" t="s">
-        <v>91</v>
       </c>
       <c r="P19" s="13">
         <v>42695</v>
       </c>
       <c r="Q19" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R19" s="16"/>
       <c r="S19" s="16"/>
@@ -3147,24 +3142,24 @@
       <c r="U19" s="22"/>
       <c r="V19" s="23"/>
     </row>
-    <row r="20" spans="1:22" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:22" s="3" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="D20" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E20" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>74</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>19</v>
@@ -3180,22 +3175,22 @@
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N20" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="O20" s="18" t="s">
         <v>90</v>
-      </c>
-      <c r="O20" s="18" t="s">
-        <v>91</v>
       </c>
       <c r="P20" s="13">
         <v>42695</v>
       </c>
       <c r="Q20" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R20" s="16"/>
       <c r="S20" s="16"/>
@@ -3203,24 +3198,24 @@
       <c r="U20" s="22"/>
       <c r="V20" s="23"/>
     </row>
-    <row r="21" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:22" s="4" customFormat="1" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="D21" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E21" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>74</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>19</v>
@@ -3236,22 +3231,22 @@
       </c>
       <c r="K21" s="11"/>
       <c r="L21" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N21" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="M21" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="N21" s="18" t="s">
-        <v>81</v>
-      </c>
       <c r="O21" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P21" s="13">
         <v>42695</v>
       </c>
       <c r="Q21" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R21" s="20"/>
       <c r="S21" s="20"/>
@@ -3259,24 +3254,24 @@
       <c r="U21" s="24"/>
       <c r="V21" s="25"/>
     </row>
-    <row r="22" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:22" s="4" customFormat="1" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9">
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="D22" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E22" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>74</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>19</v>
@@ -3292,22 +3287,22 @@
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N22" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="O22" s="18" t="s">
         <v>90</v>
-      </c>
-      <c r="O22" s="18" t="s">
-        <v>91</v>
       </c>
       <c r="P22" s="13">
         <v>42695</v>
       </c>
       <c r="Q22" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R22" s="20"/>
       <c r="S22" s="20"/>
@@ -3315,24 +3310,24 @@
       <c r="U22" s="24"/>
       <c r="V22" s="25"/>
     </row>
-    <row r="23" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:22" s="4" customFormat="1" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9">
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="D23" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E23" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>74</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>19</v>
@@ -3348,13 +3343,13 @@
       </c>
       <c r="K23" s="11"/>
       <c r="L23" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N23" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O23" s="18"/>
       <c r="P23" s="13"/>
@@ -3365,24 +3360,24 @@
       <c r="U23" s="24"/>
       <c r="V23" s="25"/>
     </row>
-    <row r="24" spans="1:22" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:22" s="4" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9">
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="D24" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>87</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>19</v>
@@ -3398,22 +3393,22 @@
       </c>
       <c r="K24" s="11"/>
       <c r="L24" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N24" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O24" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P24" s="13">
         <v>42695</v>
       </c>
       <c r="Q24" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R24" s="20"/>
       <c r="S24" s="20"/>
@@ -3421,24 +3416,24 @@
       <c r="U24" s="24"/>
       <c r="V24" s="25"/>
     </row>
-    <row r="25" spans="1:22" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:22" s="4" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9">
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="D25" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E25" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>74</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>19</v>
@@ -3454,13 +3449,13 @@
       </c>
       <c r="K25" s="11"/>
       <c r="L25" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N25" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O25" s="18"/>
       <c r="P25" s="13"/>
@@ -3471,7 +3466,7 @@
       <c r="U25" s="24"/>
       <c r="V25" s="25"/>
     </row>
-    <row r="26" spans="1:22" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" s="3" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -3479,16 +3474,16 @@
         <v>31</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>30</v>
@@ -3504,22 +3499,22 @@
       </c>
       <c r="K26" s="11"/>
       <c r="L26" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="M26" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="M26" s="11" t="s">
+      <c r="N26" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="N26" s="11" t="s">
+      <c r="O26" s="18" t="s">
         <v>54</v>
-      </c>
-      <c r="O26" s="18" t="s">
-        <v>55</v>
       </c>
       <c r="P26" s="29">
         <v>42695</v>
       </c>
       <c r="Q26" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R26" s="27"/>
       <c r="S26" s="27"/>
@@ -3527,7 +3522,7 @@
       <c r="U26" s="22"/>
       <c r="V26" s="23"/>
     </row>
-    <row r="27" spans="1:22" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:22" s="3" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -3538,13 +3533,13 @@
         <v>32</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>30</v>
@@ -3560,22 +3555,22 @@
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O27" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P27" s="29">
         <v>42695</v>
       </c>
       <c r="Q27" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R27" s="27"/>
       <c r="S27" s="27"/>
@@ -3583,7 +3578,7 @@
       <c r="U27" s="22"/>
       <c r="V27" s="23"/>
     </row>
-    <row r="28" spans="1:22" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:22" s="3" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -3594,13 +3589,13 @@
         <v>32</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>30</v>
@@ -3616,22 +3611,22 @@
       </c>
       <c r="K28" s="11"/>
       <c r="L28" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O28" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P28" s="29">
         <v>42695</v>
       </c>
       <c r="Q28" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R28" s="27"/>
       <c r="S28" s="27"/>
@@ -3639,7 +3634,7 @@
       <c r="U28" s="22"/>
       <c r="V28" s="23"/>
     </row>
-    <row r="29" spans="1:22" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:22" s="3" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -3650,13 +3645,13 @@
         <v>32</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>30</v>
@@ -3672,22 +3667,22 @@
       </c>
       <c r="K29" s="11"/>
       <c r="L29" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O29" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P29" s="29">
         <v>42695</v>
       </c>
       <c r="Q29" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R29" s="27"/>
       <c r="S29" s="27"/>
@@ -3695,7 +3690,7 @@
       <c r="U29" s="22"/>
       <c r="V29" s="23"/>
     </row>
-    <row r="30" spans="1:22" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:22" s="3" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -3706,13 +3701,13 @@
         <v>32</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>30</v>
@@ -3728,22 +3723,22 @@
       </c>
       <c r="K30" s="11"/>
       <c r="L30" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O30" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P30" s="29">
         <v>42695</v>
       </c>
       <c r="Q30" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R30" s="27"/>
       <c r="S30" s="27"/>
@@ -3751,7 +3746,7 @@
       <c r="U30" s="22"/>
       <c r="V30" s="23"/>
     </row>
-    <row r="31" spans="1:22" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:22" s="3" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -3759,19 +3754,19 @@
         <v>31</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H31" s="29">
         <v>42694</v>
@@ -3784,22 +3779,22 @@
       </c>
       <c r="K31" s="11"/>
       <c r="L31" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M31" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="N31" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="N31" s="11" t="s">
+      <c r="O31" s="18" t="s">
         <v>54</v>
-      </c>
-      <c r="O31" s="18" t="s">
-        <v>55</v>
       </c>
       <c r="P31" s="29">
         <v>42695</v>
       </c>
       <c r="Q31" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R31" s="27"/>
       <c r="S31" s="27"/>
@@ -3807,7 +3802,7 @@
       <c r="U31" s="22"/>
       <c r="V31" s="23"/>
     </row>
-    <row r="32" spans="1:22" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:22" s="3" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -3818,13 +3813,13 @@
         <v>32</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>30</v>
@@ -3840,22 +3835,22 @@
       </c>
       <c r="K32" s="11"/>
       <c r="L32" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M32" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="N32" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="N32" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="O32" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P32" s="29">
         <v>42695</v>
       </c>
       <c r="Q32" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R32" s="16"/>
       <c r="S32" s="16"/>
@@ -3863,7 +3858,7 @@
       <c r="U32" s="22"/>
       <c r="V32" s="23"/>
     </row>
-    <row r="33" spans="1:22" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:22" s="3" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -3874,13 +3869,13 @@
         <v>32</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>30</v>
@@ -3896,22 +3891,22 @@
       </c>
       <c r="K33" s="11"/>
       <c r="L33" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="N33" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="M33" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="N33" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="O33" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P33" s="29">
         <v>42695</v>
       </c>
       <c r="Q33" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R33" s="16"/>
       <c r="S33" s="16"/>
@@ -3919,7 +3914,7 @@
       <c r="U33" s="22"/>
       <c r="V33" s="23"/>
     </row>
-    <row r="34" spans="1:22" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:22" s="3" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -3930,13 +3925,13 @@
         <v>32</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>30</v>
@@ -3952,22 +3947,22 @@
       </c>
       <c r="K34" s="11"/>
       <c r="L34" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N34" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O34" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P34" s="29">
         <v>42695</v>
       </c>
       <c r="Q34" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R34" s="16"/>
       <c r="S34" s="16"/>
@@ -3975,7 +3970,7 @@
       <c r="U34" s="22"/>
       <c r="V34" s="23"/>
     </row>
-    <row r="35" spans="1:22" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:22" s="3" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
         <v>34</v>
       </c>
@@ -3986,13 +3981,13 @@
         <v>32</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>30</v>
@@ -4008,22 +4003,22 @@
       </c>
       <c r="K35" s="11"/>
       <c r="L35" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O35" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P35" s="29">
         <v>42695</v>
       </c>
       <c r="Q35" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R35" s="16"/>
       <c r="S35" s="16"/>
@@ -4031,7 +4026,7 @@
       <c r="U35" s="22"/>
       <c r="V35" s="23"/>
     </row>
-    <row r="36" spans="1:22" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:22" s="3" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="9">
         <v>35</v>
       </c>
@@ -4042,13 +4037,13 @@
         <v>32</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>30</v>
@@ -4064,22 +4059,22 @@
       </c>
       <c r="K36" s="11"/>
       <c r="L36" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N36" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O36" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P36" s="29">
         <v>42695</v>
       </c>
       <c r="Q36" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R36" s="16"/>
       <c r="S36" s="16"/>
@@ -4087,7 +4082,7 @@
       <c r="U36" s="22"/>
       <c r="V36" s="23"/>
     </row>
-    <row r="37" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -4110,7 +4105,7 @@
       <c r="T37" s="16"/>
       <c r="U37" s="15"/>
     </row>
-    <row r="38" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -4133,7 +4128,7 @@
       <c r="T38" s="16"/>
       <c r="U38" s="15"/>
     </row>
-    <row r="39" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -4156,7 +4151,7 @@
       <c r="T39" s="16"/>
       <c r="U39" s="15"/>
     </row>
-    <row r="40" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -4179,7 +4174,7 @@
       <c r="T40" s="16"/>
       <c r="U40" s="15"/>
     </row>
-    <row r="41" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
@@ -4202,7 +4197,7 @@
       <c r="T41" s="16"/>
       <c r="U41" s="15"/>
     </row>
-    <row r="42" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
@@ -4225,7 +4220,7 @@
       <c r="T42" s="16"/>
       <c r="U42" s="15"/>
     </row>
-    <row r="43" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
@@ -4248,7 +4243,7 @@
       <c r="T43" s="16"/>
       <c r="U43" s="15"/>
     </row>
-    <row r="44" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="16"/>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
@@ -4271,7 +4266,7 @@
       <c r="T44" s="16"/>
       <c r="U44" s="15"/>
     </row>
-    <row r="45" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
@@ -4294,7 +4289,7 @@
       <c r="T45" s="16"/>
       <c r="U45" s="15"/>
     </row>
-    <row r="46" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="16"/>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
@@ -4317,7 +4312,7 @@
       <c r="T46" s="16"/>
       <c r="U46" s="15"/>
     </row>
-    <row r="47" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -4340,7 +4335,7 @@
       <c r="T47" s="16"/>
       <c r="U47" s="15"/>
     </row>
-    <row r="48" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="16"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -4363,7 +4358,7 @@
       <c r="T48" s="16"/>
       <c r="U48" s="15"/>
     </row>
-    <row r="49" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -4386,7 +4381,7 @@
       <c r="T49" s="16"/>
       <c r="U49" s="15"/>
     </row>
-    <row r="50" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="16"/>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
@@ -4409,7 +4404,7 @@
       <c r="T50" s="16"/>
       <c r="U50" s="15"/>
     </row>
-    <row r="51" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
@@ -4432,7 +4427,7 @@
       <c r="T51" s="16"/>
       <c r="U51" s="15"/>
     </row>
-    <row r="52" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="16"/>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
@@ -4455,7 +4450,7 @@
       <c r="T52" s="16"/>
       <c r="U52" s="15"/>
     </row>
-    <row r="53" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="16"/>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
@@ -4478,7 +4473,7 @@
       <c r="T53" s="16"/>
       <c r="U53" s="15"/>
     </row>
-    <row r="54" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
@@ -4501,7 +4496,7 @@
       <c r="T54" s="16"/>
       <c r="U54" s="15"/>
     </row>
-    <row r="55" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="16"/>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
@@ -4524,7 +4519,7 @@
       <c r="T55" s="16"/>
       <c r="U55" s="15"/>
     </row>
-    <row r="56" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="16"/>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
@@ -4547,7 +4542,7 @@
       <c r="T56" s="16"/>
       <c r="U56" s="15"/>
     </row>
-    <row r="57" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="16"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
@@ -4570,7 +4565,7 @@
       <c r="T57" s="16"/>
       <c r="U57" s="15"/>
     </row>
-    <row r="58" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="16"/>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
@@ -4593,7 +4588,7 @@
       <c r="T58" s="16"/>
       <c r="U58" s="15"/>
     </row>
-    <row r="59" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="16"/>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
@@ -4616,7 +4611,7 @@
       <c r="T59" s="16"/>
       <c r="U59" s="15"/>
     </row>
-    <row r="60" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
@@ -4639,7 +4634,7 @@
       <c r="T60" s="16"/>
       <c r="U60" s="15"/>
     </row>
-    <row r="61" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="16"/>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
@@ -4662,7 +4657,7 @@
       <c r="T61" s="16"/>
       <c r="U61" s="15"/>
     </row>
-    <row r="62" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -4685,7 +4680,7 @@
       <c r="T62" s="16"/>
       <c r="U62" s="15"/>
     </row>
-    <row r="63" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="16"/>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
@@ -4708,7 +4703,7 @@
       <c r="T63" s="16"/>
       <c r="U63" s="15"/>
     </row>
-    <row r="64" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
@@ -4731,7 +4726,7 @@
       <c r="T64" s="16"/>
       <c r="U64" s="15"/>
     </row>
-    <row r="65" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="16"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
@@ -4754,7 +4749,7 @@
       <c r="T65" s="16"/>
       <c r="U65" s="15"/>
     </row>
-    <row r="66" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
@@ -4777,7 +4772,7 @@
       <c r="T66" s="16"/>
       <c r="U66" s="15"/>
     </row>
-    <row r="67" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="16"/>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
@@ -4800,7 +4795,7 @@
       <c r="T67" s="16"/>
       <c r="U67" s="15"/>
     </row>
-    <row r="68" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
@@ -4823,7 +4818,7 @@
       <c r="T68" s="16"/>
       <c r="U68" s="15"/>
     </row>
-    <row r="69" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="16"/>
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
@@ -4846,7 +4841,7 @@
       <c r="T69" s="16"/>
       <c r="U69" s="15"/>
     </row>
-    <row r="70" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="16"/>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
@@ -4869,7 +4864,7 @@
       <c r="T70" s="16"/>
       <c r="U70" s="15"/>
     </row>
-    <row r="71" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="16"/>
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
@@ -4892,7 +4887,7 @@
       <c r="T71" s="16"/>
       <c r="U71" s="15"/>
     </row>
-    <row r="72" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
@@ -4915,7 +4910,7 @@
       <c r="T72" s="16"/>
       <c r="U72" s="15"/>
     </row>
-    <row r="73" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
@@ -4938,7 +4933,7 @@
       <c r="T73" s="16"/>
       <c r="U73" s="15"/>
     </row>
-    <row r="74" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
@@ -4961,7 +4956,7 @@
       <c r="T74" s="16"/>
       <c r="U74" s="15"/>
     </row>
-    <row r="75" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="16"/>
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
@@ -4984,7 +4979,7 @@
       <c r="T75" s="16"/>
       <c r="U75" s="15"/>
     </row>
-    <row r="76" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
@@ -5007,7 +5002,7 @@
       <c r="T76" s="16"/>
       <c r="U76" s="15"/>
     </row>
-    <row r="77" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
@@ -5030,7 +5025,7 @@
       <c r="T77" s="16"/>
       <c r="U77" s="15"/>
     </row>
-    <row r="78" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
@@ -5053,7 +5048,7 @@
       <c r="T78" s="16"/>
       <c r="U78" s="15"/>
     </row>
-    <row r="79" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="16"/>
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
@@ -5076,7 +5071,7 @@
       <c r="T79" s="16"/>
       <c r="U79" s="15"/>
     </row>
-    <row r="80" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
@@ -5099,7 +5094,7 @@
       <c r="T80" s="16"/>
       <c r="U80" s="15"/>
     </row>
-    <row r="81" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A81" s="16"/>
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
@@ -5122,7 +5117,7 @@
       <c r="T81" s="16"/>
       <c r="U81" s="15"/>
     </row>
-    <row r="82" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
@@ -5145,7 +5140,7 @@
       <c r="T82" s="16"/>
       <c r="U82" s="15"/>
     </row>
-    <row r="83" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A83" s="16"/>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
@@ -5168,7 +5163,7 @@
       <c r="T83" s="16"/>
       <c r="U83" s="15"/>
     </row>
-    <row r="84" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
@@ -5191,7 +5186,7 @@
       <c r="T84" s="16"/>
       <c r="U84" s="15"/>
     </row>
-    <row r="85" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A85" s="16"/>
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
@@ -7349,7 +7344,13 @@
       <c r="U186" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U8"/>
+  <autoFilter ref="A1:U36">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Fix Bug"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
@@ -7364,19 +7365,19 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.33203125" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" customWidth="1"/>
-    <col min="13" max="13" width="36.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.375" customWidth="1"/>
+    <col min="8" max="8" width="20.375" customWidth="1"/>
+    <col min="13" max="13" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
@@ -7406,122 +7407,122 @@
       <c r="L2" s="53"/>
       <c r="M2" s="54"/>
     </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="C3" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="D3" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="E3" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="F3" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="G3" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="H3" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="I3" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="J3" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="K3" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="L3" s="31" t="s">
         <v>106</v>
-      </c>
-      <c r="L3" s="31" t="s">
-        <v>107</v>
       </c>
       <c r="M3" s="33" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="64" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="66" x14ac:dyDescent="0.15">
       <c r="A4" s="34">
         <v>1</v>
       </c>
       <c r="B4" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="E4" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="F4" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="G4" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="H4" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="I4" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="J4" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="K4" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="I4" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>172</v>
-      </c>
       <c r="L4" s="35" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M4" s="35"/>
     </row>
-    <row r="5" spans="1:13" ht="48" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A5" s="34">
         <v>2</v>
       </c>
       <c r="B5" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="E5" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="F5" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="H5" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="F5" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="G5" s="35" t="s">
+      <c r="I5" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="J5" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="K5" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="I5" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="J5" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="K5" s="35" t="s">
-        <v>180</v>
-      </c>
       <c r="L5" s="35" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M5" s="35"/>
     </row>
@@ -7550,77 +7551,77 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="54.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="54.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="G1" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="H1" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="D1" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" s="37" t="s">
+      <c r="I1" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="J1" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="K1" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="L1" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="M1" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="N1" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="O1" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="P1" s="37" t="s">
         <v>234</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="Q1" s="37" t="s">
         <v>235</v>
-      </c>
-      <c r="N1" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="O1" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="P1" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q1" s="37" t="s">
-        <v>238</v>
       </c>
       <c r="R1" s="37" t="s">
         <v>18</v>
@@ -7628,163 +7629,163 @@
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="40" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D2" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="H2" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="I2" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="47" t="s">
         <v>248</v>
       </c>
-      <c r="F2" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="44" t="s">
+      <c r="K2" s="48" t="s">
         <v>249</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="L2" s="47" t="s">
         <v>250</v>
       </c>
-      <c r="I2" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" s="47" t="s">
+      <c r="M2" s="47" t="s">
         <v>251</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="N2" s="47" t="s">
         <v>252</v>
       </c>
-      <c r="L2" s="47" t="s">
+      <c r="O2" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="M2" s="47" t="s">
+      <c r="P2" s="50" t="s">
         <v>254</v>
       </c>
-      <c r="N2" s="47" t="s">
+      <c r="Q2" s="49" t="s">
         <v>255</v>
-      </c>
-      <c r="O2" s="49" t="s">
-        <v>256</v>
-      </c>
-      <c r="P2" s="50" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q2" s="49" t="s">
-        <v>258</v>
       </c>
       <c r="R2" s="49"/>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="F3" s="43" t="s">
         <v>259</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="G3" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="K3" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="L3" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="M3" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="N3" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="C3" s="41" t="s">
-        <v>245</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>261</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>262</v>
-      </c>
-      <c r="G3" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="H3" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="I3" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="J3" s="47" t="s">
-        <v>263</v>
-      </c>
-      <c r="K3" s="48" t="s">
-        <v>242</v>
-      </c>
-      <c r="L3" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="M3" s="47" t="s">
-        <v>264</v>
-      </c>
-      <c r="N3" s="47" t="s">
-        <v>243</v>
-      </c>
       <c r="O3" s="49" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="P3" s="50" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Q3" s="49" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="R3" s="49"/>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="40" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B4" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>264</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" s="47" t="s">
         <v>265</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="K4" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="L4" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="M4" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="N4" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="O4" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="P4" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="D4" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>266</v>
-      </c>
-      <c r="F4" s="43" t="s">
-        <v>267</v>
-      </c>
-      <c r="G4" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="H4" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="I4" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="J4" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="K4" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="L4" s="47" t="s">
-        <v>269</v>
-      </c>
-      <c r="M4" s="47" t="s">
+      <c r="Q4" s="49" t="s">
         <v>270</v>
-      </c>
-      <c r="N4" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="O4" s="49" t="s">
-        <v>272</v>
-      </c>
-      <c r="P4" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q4" s="49" t="s">
-        <v>273</v>
       </c>
       <c r="R4" s="49"/>
     </row>
